--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$175</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5928" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5992" uniqueCount="768">
   <si>
     <t>Path</t>
   </si>
@@ -1362,6 +1362,16 @@
     <t>Claim.diagnosis.extension</t>
   </si>
   <si>
+    <t>majorDiagnosticCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/major-diagnostic-category}
+</t>
+  </si>
+  <si>
+    <t>The body system or disease related groupings of clinical conditions, based on diagnosis codes</t>
+  </si>
+  <si>
     <t>Claim.diagnosis.modifierExtension</t>
   </si>
   <si>
@@ -1478,6 +1488,16 @@
   </si>
   <si>
     <t>Claim.procedure.extension</t>
+  </si>
+  <si>
+    <t>procedureGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/procedure-group}
+</t>
+  </si>
+  <si>
+    <t>Groups assigned to categorize related procedures</t>
   </si>
   <si>
     <t>Claim.procedure.modifierExtension</t>
@@ -2515,7 +2535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL173"/>
+  <dimension ref="A1:AL175"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10592,7 +10612,7 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10614,14 +10634,12 @@
         <v>96</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>42</v>
@@ -10658,16 +10676,14 @@
         <v>42</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB75" s="2"/>
       <c r="AC75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE75" t="s" s="2">
         <v>142</v>
@@ -10691,48 +10707,46 @@
         <v>42</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B76" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>96</v>
+        <v>433</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>284</v>
+        <v>434</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>42</v>
       </c>
@@ -10780,7 +10794,7 @@
         <v>42</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
@@ -10789,7 +10803,7 @@
         <v>41</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>102</v>
@@ -10806,42 +10820,42 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>355</v>
+        <v>96</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>434</v>
+        <v>284</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>435</v>
+        <v>285</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>436</v>
+        <v>122</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>437</v>
+        <v>123</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>42</v>
@@ -10890,19 +10904,19 @@
         <v>42</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>433</v>
+        <v>286</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>42</v>
@@ -10911,12 +10925,12 @@
         <v>42</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10939,17 +10953,19 @@
         <v>42</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
@@ -10974,13 +10990,13 @@
         <v>42</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>443</v>
+        <v>42</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>444</v>
+        <v>42</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>42</v>
@@ -10998,7 +11014,7 @@
         <v>42</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>50</v>
@@ -11024,7 +11040,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11032,10 +11048,10 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>42</v>
@@ -11047,19 +11063,17 @@
         <v>42</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>154</v>
+        <v>442</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>42</v>
@@ -11087,10 +11101,10 @@
         <v>211</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>42</v>
@@ -11108,13 +11122,13 @@
         <v>42</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>42</v>
@@ -11134,7 +11148,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11145,7 +11159,7 @@
         <v>40</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>42</v>
@@ -11160,14 +11174,16 @@
         <v>154</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="N80" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>42</v>
@@ -11195,10 +11211,10 @@
         <v>211</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>42</v>
@@ -11216,13 +11232,13 @@
         <v>42</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>42</v>
@@ -11242,7 +11258,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11268,16 +11284,14 @@
         <v>154</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>42</v>
@@ -11305,10 +11319,10 @@
         <v>211</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>42</v>
@@ -11326,7 +11340,7 @@
         <v>42</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
@@ -11352,7 +11366,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11363,7 +11377,7 @@
         <v>40</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>42</v>
@@ -11375,17 +11389,19 @@
         <v>42</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>275</v>
+        <v>154</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="N82" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>42</v>
@@ -11410,13 +11426,13 @@
         <v>42</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>42</v>
+        <v>466</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>42</v>
+        <v>467</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>42</v>
@@ -11434,13 +11450,13 @@
         <v>42</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>42</v>
@@ -11460,7 +11476,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11471,7 +11487,7 @@
         <v>40</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>42</v>
@@ -11483,16 +11499,18 @@
         <v>42</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>52</v>
+        <v>275</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>134</v>
+        <v>469</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>135</v>
+        <v>470</v>
       </c>
       <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+      <c r="N83" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>42</v>
       </c>
@@ -11540,19 +11558,19 @@
         <v>42</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>136</v>
+        <v>468</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>42</v>
@@ -11561,23 +11579,23 @@
         <v>42</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>42</v>
@@ -11589,17 +11607,15 @@
         <v>42</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>42</v>
@@ -11648,19 +11664,19 @@
         <v>42</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>42</v>
@@ -11674,11 +11690,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11691,26 +11707,22 @@
         <v>42</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>284</v>
+        <v>97</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>42</v>
       </c>
@@ -11746,19 +11758,17 @@
         <v>42</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB85" s="2"/>
       <c r="AC85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -11779,20 +11789,22 @@
         <v>42</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B86" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="C86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>50</v>
@@ -11807,18 +11819,16 @@
         <v>42</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>355</v>
+        <v>475</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M86" s="2"/>
-      <c r="N86" t="s" s="2">
-        <v>475</v>
-      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>42</v>
       </c>
@@ -11866,19 +11876,19 @@
         <v>42</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>472</v>
+        <v>142</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>42</v>
@@ -11887,16 +11897,16 @@
         <v>42</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11909,25 +11919,25 @@
         <v>42</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>477</v>
+        <v>284</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>447</v>
+        <v>285</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>478</v>
+        <v>122</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>449</v>
+        <v>123</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>42</v>
@@ -11952,13 +11962,13 @@
         <v>42</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>479</v>
+        <v>42</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>480</v>
+        <v>42</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>42</v>
@@ -11976,7 +11986,7 @@
         <v>42</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>476</v>
+        <v>286</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -11988,7 +11998,7 @@
         <v>42</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>42</v>
@@ -11997,12 +12007,12 @@
         <v>42</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12010,7 +12020,7 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>50</v>
@@ -12025,17 +12035,17 @@
         <v>42</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>234</v>
+        <v>355</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>42</v>
@@ -12084,10 +12094,10 @@
         <v>42</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>50</v>
@@ -12110,7 +12120,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12118,10 +12128,10 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>42</v>
@@ -12133,17 +12143,19 @@
         <v>42</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>486</v>
+        <v>154</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="N89" t="s" s="2">
-        <v>489</v>
+        <v>452</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>42</v>
@@ -12171,10 +12183,10 @@
         <v>211</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>42</v>
@@ -12192,13 +12204,13 @@
         <v>42</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>42</v>
@@ -12218,7 +12230,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12229,7 +12241,7 @@
         <v>40</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>42</v>
@@ -12241,17 +12253,17 @@
         <v>42</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>493</v>
+        <v>234</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>42</v>
@@ -12300,13 +12312,13 @@
         <v>42</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>42</v>
@@ -12326,7 +12338,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12337,7 +12349,7 @@
         <v>50</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>42</v>
@@ -12346,22 +12358,20 @@
         <v>42</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>275</v>
+        <v>492</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>42</v>
@@ -12386,13 +12396,13 @@
         <v>42</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>42</v>
+        <v>496</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>42</v>
+        <v>497</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>42</v>
@@ -12410,13 +12420,13 @@
         <v>42</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>42</v>
@@ -12431,12 +12441,12 @@
         <v>42</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>502</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12447,7 +12457,7 @@
         <v>40</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>42</v>
@@ -12459,16 +12469,18 @@
         <v>42</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>52</v>
+        <v>499</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>134</v>
+        <v>500</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>135</v>
+        <v>501</v>
       </c>
       <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>42</v>
       </c>
@@ -12516,19 +12528,19 @@
         <v>42</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>136</v>
+        <v>498</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>42</v>
@@ -12537,20 +12549,20 @@
         <v>42</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>41</v>
@@ -12562,21 +12574,23 @@
         <v>42</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>139</v>
+        <v>504</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>140</v>
+        <v>505</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>42</v>
       </c>
@@ -12624,10 +12638,10 @@
         <v>42</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>142</v>
+        <v>503</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>41</v>
@@ -12636,7 +12650,7 @@
         <v>42</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>42</v>
@@ -12645,48 +12659,44 @@
         <v>42</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>137</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>42</v>
       </c>
@@ -12734,19 +12744,19 @@
         <v>42</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>42</v>
@@ -12755,23 +12765,23 @@
         <v>42</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>42</v>
@@ -12780,21 +12790,21 @@
         <v>42</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>355</v>
+        <v>96</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>507</v>
+        <v>139</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>42</v>
       </c>
@@ -12842,19 +12852,19 @@
         <v>42</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>506</v>
+        <v>142</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>42</v>
@@ -12863,47 +12873,47 @@
         <v>42</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>366</v>
+        <v>96</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>511</v>
+        <v>284</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>512</v>
+        <v>285</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>513</v>
+        <v>122</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>514</v>
+        <v>123</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>42</v>
@@ -12952,19 +12962,19 @@
         <v>42</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>510</v>
+        <v>286</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>42</v>
@@ -12973,12 +12983,12 @@
         <v>42</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12986,7 +12996,7 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>50</v>
@@ -12998,22 +13008,20 @@
         <v>42</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>127</v>
+        <v>355</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>42</v>
@@ -13062,10 +13070,10 @@
         <v>42</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>50</v>
@@ -13077,10 +13085,10 @@
         <v>63</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>42</v>
@@ -13088,7 +13096,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13111,17 +13119,19 @@
         <v>51</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>521</v>
+        <v>366</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M98" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="N98" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>42</v>
@@ -13170,7 +13180,7 @@
         <v>42</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>50</v>
@@ -13196,7 +13206,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13219,17 +13229,19 @@
         <v>42</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="N99" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>42</v>
@@ -13278,7 +13290,7 @@
         <v>42</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>40</v>
@@ -13293,10 +13305,10 @@
         <v>63</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>42</v>
@@ -13304,7 +13316,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13312,10 +13324,10 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>42</v>
@@ -13324,22 +13336,20 @@
         <v>42</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>52</v>
+        <v>527</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>42</v>
@@ -13388,13 +13398,13 @@
         <v>42</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>42</v>
@@ -13414,7 +13424,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13437,19 +13447,17 @@
         <v>42</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>535</v>
+        <v>52</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="M101" s="2"/>
       <c r="N101" t="s" s="2">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>42</v>
@@ -13498,7 +13506,7 @@
         <v>42</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>40</v>
@@ -13524,7 +13532,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13535,7 +13543,7 @@
         <v>40</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>42</v>
@@ -13547,17 +13555,19 @@
         <v>42</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>275</v>
+        <v>52</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M102" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="N102" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>42</v>
@@ -13606,13 +13616,13 @@
         <v>42</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>42</v>
@@ -13632,7 +13642,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13655,16 +13665,20 @@
         <v>42</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>52</v>
+        <v>541</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>134</v>
+        <v>542</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>545</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>42</v>
       </c>
@@ -13712,7 +13726,7 @@
         <v>42</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>136</v>
+        <v>540</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>40</v>
@@ -13724,7 +13738,7 @@
         <v>42</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>42</v>
@@ -13733,23 +13747,23 @@
         <v>42</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>42</v>
@@ -13761,18 +13775,18 @@
         <v>42</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>139</v>
+        <v>547</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>42</v>
       </c>
@@ -13820,19 +13834,19 @@
         <v>42</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>142</v>
+        <v>546</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>42</v>
@@ -13841,48 +13855,44 @@
         <v>42</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>42</v>
       </c>
@@ -13930,19 +13940,19 @@
         <v>42</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>42</v>
@@ -13951,23 +13961,23 @@
         <v>42</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>42</v>
@@ -13979,20 +13989,18 @@
         <v>42</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>548</v>
+        <v>96</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>549</v>
+        <v>139</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>550</v>
+        <v>140</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>42</v>
       </c>
@@ -14040,19 +14048,19 @@
         <v>42</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>547</v>
+        <v>142</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>42</v>
@@ -14061,45 +14069,47 @@
         <v>42</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>554</v>
+        <v>284</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="M107" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="N107" t="s" s="2">
-        <v>556</v>
+        <v>123</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>42</v>
@@ -14124,13 +14134,13 @@
         <v>42</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>557</v>
+        <v>42</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>558</v>
+        <v>42</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>42</v>
@@ -14148,19 +14158,19 @@
         <v>42</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>553</v>
+        <v>286</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>42</v>
@@ -14169,12 +14179,12 @@
         <v>42</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14182,7 +14192,7 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>50</v>
@@ -14197,17 +14207,19 @@
         <v>42</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M108" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="N108" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>42</v>
@@ -14256,10 +14268,10 @@
         <v>42</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>50</v>
@@ -14282,7 +14294,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14293,7 +14305,7 @@
         <v>40</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>42</v>
@@ -14305,17 +14317,17 @@
         <v>42</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>275</v>
+        <v>154</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>42</v>
@@ -14340,13 +14352,13 @@
         <v>42</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>42</v>
+        <v>563</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>42</v>
+        <v>564</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>42</v>
@@ -14364,13 +14376,13 @@
         <v>42</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>42</v>
@@ -14390,7 +14402,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14413,16 +14425,18 @@
         <v>42</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>134</v>
+        <v>567</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>135</v>
+        <v>568</v>
       </c>
       <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
+      <c r="N110" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>42</v>
       </c>
@@ -14470,7 +14484,7 @@
         <v>42</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>136</v>
+        <v>565</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>40</v>
@@ -14482,7 +14496,7 @@
         <v>42</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>42</v>
@@ -14491,12 +14505,12 @@
         <v>42</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14519,16 +14533,18 @@
         <v>42</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>97</v>
+        <v>571</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>98</v>
+        <v>572</v>
       </c>
       <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+      <c r="N111" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>42</v>
       </c>
@@ -14564,17 +14580,19 @@
         <v>42</v>
       </c>
       <c r="AA111" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB111" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC111" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD111" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>142</v>
+        <v>570</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>40</v>
@@ -14586,7 +14604,7 @@
         <v>42</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>42</v>
@@ -14600,11 +14618,9 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
         <v>42</v>
       </c>
@@ -14625,13 +14641,13 @@
         <v>42</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>571</v>
+        <v>52</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>572</v>
+        <v>134</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>572</v>
+        <v>135</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -14682,19 +14698,19 @@
         <v>42</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>42</v>
@@ -14703,16 +14719,14 @@
         <v>42</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
         <v>42</v>
       </c>
@@ -14721,7 +14735,7 @@
         <v>40</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>42</v>
@@ -14733,13 +14747,13 @@
         <v>42</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>574</v>
+        <v>96</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>575</v>
+        <v>97</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>575</v>
+        <v>98</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -14778,16 +14792,14 @@
         <v>42</v>
       </c>
       <c r="AA113" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB113" s="2"/>
       <c r="AC113" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD113" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE113" t="s" s="2">
         <v>142</v>
@@ -14799,7 +14811,7 @@
         <v>41</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>102</v>
@@ -14811,48 +14823,46 @@
         <v>42</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B114" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>96</v>
+        <v>577</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>284</v>
+        <v>578</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>42</v>
       </c>
@@ -14900,7 +14910,7 @@
         <v>42</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>40</v>
@@ -14909,7 +14919,7 @@
         <v>41</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>102</v>
@@ -14926,15 +14936,17 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="B115" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="C115" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F115" t="s" s="2">
         <v>50</v>
@@ -14949,18 +14961,16 @@
         <v>42</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>355</v>
+        <v>580</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M115" s="2"/>
-      <c r="N115" t="s" s="2">
-        <v>580</v>
-      </c>
+      <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>42</v>
       </c>
@@ -15008,19 +15018,19 @@
         <v>42</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>577</v>
+        <v>142</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>42</v>
@@ -15029,16 +15039,16 @@
         <v>42</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -15051,23 +15061,25 @@
         <v>42</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>355</v>
+        <v>96</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>582</v>
+        <v>284</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M116" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="N116" t="s" s="2">
-        <v>584</v>
+        <v>123</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>42</v>
@@ -15116,7 +15128,7 @@
         <v>42</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>581</v>
+        <v>286</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>40</v>
@@ -15128,7 +15140,7 @@
         <v>42</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>42</v>
@@ -15137,12 +15149,12 @@
         <v>42</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15150,10 +15162,10 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>42</v>
@@ -15168,14 +15180,14 @@
         <v>355</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>42</v>
@@ -15224,13 +15236,13 @@
         <v>42</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>42</v>
@@ -15250,7 +15262,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15276,14 +15288,14 @@
         <v>355</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>42</v>
@@ -15332,7 +15344,7 @@
         <v>42</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>40</v>
@@ -15358,7 +15370,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15384,14 +15396,14 @@
         <v>355</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>42</v>
@@ -15440,7 +15452,7 @@
         <v>42</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>40</v>
@@ -15466,7 +15478,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15477,7 +15489,7 @@
         <v>40</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>42</v>
@@ -15489,17 +15501,17 @@
         <v>42</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>154</v>
+        <v>355</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>42</v>
@@ -15524,13 +15536,13 @@
         <v>42</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>601</v>
+        <v>42</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>602</v>
+        <v>42</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>42</v>
@@ -15548,13 +15560,13 @@
         <v>42</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>42</v>
@@ -15574,7 +15586,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15585,7 +15597,7 @@
         <v>40</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>42</v>
@@ -15597,19 +15609,17 @@
         <v>42</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>154</v>
+        <v>355</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>606</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>42</v>
@@ -15634,13 +15644,13 @@
         <v>42</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>608</v>
+        <v>42</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>609</v>
+        <v>42</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>42</v>
@@ -15658,13 +15668,13 @@
         <v>42</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>42</v>
@@ -15684,15 +15694,15 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>611</v>
+        <v>42</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s" s="2">
         <v>50</v>
@@ -15710,16 +15720,14 @@
         <v>154</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>614</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>42</v>
@@ -15747,10 +15755,10 @@
         <v>211</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>42</v>
@@ -15768,10 +15776,10 @@
         <v>42</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>50</v>
@@ -15794,7 +15802,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15805,7 +15813,7 @@
         <v>40</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>42</v>
@@ -15820,16 +15828,16 @@
         <v>154</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>42</v>
@@ -15857,10 +15865,10 @@
         <v>211</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>42</v>
@@ -15878,13 +15886,13 @@
         <v>42</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>42</v>
@@ -15904,18 +15912,18 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>42</v>
+        <v>617</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>42</v>
@@ -15930,16 +15938,16 @@
         <v>154</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>42</v>
@@ -15967,10 +15975,10 @@
         <v>211</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>42</v>
@@ -15988,13 +15996,13 @@
         <v>42</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>42</v>
@@ -16014,7 +16022,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16025,7 +16033,7 @@
         <v>40</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>42</v>
@@ -16037,17 +16045,19 @@
         <v>42</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>409</v>
+        <v>154</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="M125" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>627</v>
+      </c>
       <c r="N125" t="s" s="2">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>42</v>
@@ -16072,13 +16082,13 @@
         <v>42</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>42</v>
+        <v>629</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>42</v>
+        <v>630</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>42</v>
@@ -16096,13 +16106,13 @@
         <v>42</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>42</v>
@@ -16114,7 +16124,7 @@
         <v>42</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>42</v>
@@ -16122,7 +16132,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16133,7 +16143,7 @@
         <v>40</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>42</v>
@@ -16145,17 +16155,19 @@
         <v>42</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>637</v>
+        <v>154</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="M126" s="2"/>
+        <v>633</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>634</v>
+      </c>
       <c r="N126" t="s" s="2">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>42</v>
@@ -16183,10 +16195,10 @@
         <v>211</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>42</v>
@@ -16204,13 +16216,13 @@
         <v>42</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>42</v>
@@ -16222,7 +16234,7 @@
         <v>42</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>346</v>
+        <v>42</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>42</v>
@@ -16230,7 +16242,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16253,17 +16265,17 @@
         <v>42</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>644</v>
+        <v>409</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" t="s" s="2">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>42</v>
@@ -16312,7 +16324,7 @@
         <v>42</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>40</v>
@@ -16330,7 +16342,7 @@
         <v>42</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>42</v>
@@ -16338,7 +16350,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16361,16 +16373,18 @@
         <v>42</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>52</v>
+        <v>643</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>134</v>
+        <v>644</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>135</v>
+        <v>645</v>
       </c>
       <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
+      <c r="N128" t="s" s="2">
+        <v>646</v>
+      </c>
       <c r="O128" t="s" s="2">
         <v>42</v>
       </c>
@@ -16394,13 +16408,13 @@
         <v>42</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>42</v>
+        <v>647</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>42</v>
+        <v>648</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>42</v>
@@ -16418,7 +16432,7 @@
         <v>42</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>136</v>
+        <v>642</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>40</v>
@@ -16430,16 +16444,16 @@
         <v>42</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>42</v>
+        <v>346</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" hidden="true">
@@ -16448,14 +16462,14 @@
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>42</v>
@@ -16467,18 +16481,18 @@
         <v>42</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>96</v>
+        <v>650</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>139</v>
+        <v>651</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N129" s="2"/>
+        <v>652</v>
+      </c>
+      <c r="M129" s="2"/>
+      <c r="N129" t="s" s="2">
+        <v>653</v>
+      </c>
       <c r="O129" t="s" s="2">
         <v>42</v>
       </c>
@@ -16514,31 +16528,31 @@
         <v>42</v>
       </c>
       <c r="AA129" t="s" s="2">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="AB129" t="s" s="2">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="AC129" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD129" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>142</v>
+        <v>649</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>42</v>
@@ -16547,16 +16561,14 @@
         <v>42</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>650</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
         <v>42</v>
       </c>
@@ -16577,13 +16589,13 @@
         <v>42</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>651</v>
+        <v>52</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>652</v>
+        <v>134</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>652</v>
+        <v>135</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -16634,19 +16646,19 @@
         <v>42</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>42</v>
@@ -16655,23 +16667,23 @@
         <v>42</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>42</v>
@@ -16680,23 +16692,21 @@
         <v>42</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>654</v>
+        <v>96</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>655</v>
+        <v>139</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>656</v>
+        <v>140</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>658</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
         <v>42</v>
       </c>
@@ -16732,31 +16742,31 @@
         <v>42</v>
       </c>
       <c r="AA131" t="s" s="2">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="AB131" t="s" s="2">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="AC131" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD131" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>659</v>
+        <v>142</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>42</v>
@@ -16765,14 +16775,16 @@
         <v>42</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>660</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="B132" s="2"/>
+        <v>655</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="C132" t="s" s="2">
         <v>42</v>
       </c>
@@ -16781,36 +16793,32 @@
         <v>40</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>72</v>
+        <v>657</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="M132" s="2"/>
-      <c r="N132" t="s" s="2">
-        <v>664</v>
-      </c>
+      <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="P132" t="s" s="2">
-        <v>665</v>
-      </c>
+      <c r="P132" s="2"/>
       <c r="Q132" t="s" s="2">
         <v>42</v>
       </c>
@@ -16830,13 +16838,13 @@
         <v>42</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>666</v>
+        <v>42</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>667</v>
+        <v>42</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>42</v>
@@ -16854,19 +16862,19 @@
         <v>42</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>668</v>
+        <v>142</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>42</v>
@@ -16875,12 +16883,12 @@
         <v>42</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>669</v>
+        <v>64</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16903,17 +16911,19 @@
         <v>51</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>52</v>
+        <v>660</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="M133" s="2"/>
+        <v>662</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>663</v>
+      </c>
       <c r="N133" t="s" s="2">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>42</v>
@@ -16962,7 +16972,7 @@
         <v>42</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>40</v>
@@ -16983,12 +16993,12 @@
         <v>42</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>675</v>
+        <v>666</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16999,34 +17009,36 @@
         <v>40</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I134" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="P134" s="2"/>
+      <c r="P134" t="s" s="2">
+        <v>671</v>
+      </c>
       <c r="Q134" t="s" s="2">
         <v>42</v>
       </c>
@@ -17046,13 +17058,13 @@
         <v>42</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>42</v>
+        <v>672</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>42</v>
+        <v>673</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>42</v>
@@ -17070,7 +17082,7 @@
         <v>42</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>40</v>
@@ -17079,7 +17091,7 @@
         <v>50</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>681</v>
+        <v>42</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>63</v>
@@ -17091,12 +17103,12 @@
         <v>42</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17119,19 +17131,17 @@
         <v>51</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>686</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="M135" s="2"/>
       <c r="N135" t="s" s="2">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>42</v>
@@ -17180,7 +17190,7 @@
         <v>42</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>40</v>
@@ -17201,12 +17211,12 @@
         <v>42</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>689</v>
+        <v>681</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17226,20 +17236,20 @@
         <v>42</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>691</v>
+        <v>66</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" t="s" s="2">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>42</v>
@@ -17288,7 +17298,7 @@
         <v>42</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>40</v>
@@ -17297,7 +17307,7 @@
         <v>50</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>42</v>
+        <v>687</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>63</v>
@@ -17309,12 +17319,12 @@
         <v>42</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>42</v>
+        <v>688</v>
       </c>
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17334,22 +17344,22 @@
         <v>42</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>654</v>
+        <v>72</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>42</v>
@@ -17398,7 +17408,7 @@
         <v>42</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>40</v>
@@ -17419,12 +17429,12 @@
         <v>42</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>42</v>
+        <v>695</v>
       </c>
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17447,19 +17457,17 @@
         <v>42</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>703</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>42</v>
@@ -17508,7 +17516,7 @@
         <v>42</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>40</v>
@@ -17534,7 +17542,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17545,7 +17553,7 @@
         <v>40</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>42</v>
@@ -17557,17 +17565,19 @@
         <v>42</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>493</v>
+        <v>660</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>494</v>
+        <v>702</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M139" s="2"/>
+        <v>703</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>704</v>
+      </c>
       <c r="N139" t="s" s="2">
-        <v>496</v>
+        <v>705</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>42</v>
@@ -17616,13 +17626,13 @@
         <v>42</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>42</v>
@@ -17665,7 +17675,7 @@
         <v>42</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>154</v>
+        <v>697</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>707</v>
@@ -17702,13 +17712,13 @@
         <v>42</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>711</v>
+        <v>42</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>712</v>
+        <v>42</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>42</v>
@@ -17752,7 +17762,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17775,17 +17785,17 @@
         <v>42</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>154</v>
+        <v>499</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>715</v>
+        <v>501</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>710</v>
+        <v>502</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>42</v>
@@ -17810,13 +17820,13 @@
         <v>42</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>716</v>
+        <v>42</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>717</v>
+        <v>42</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>42</v>
@@ -17834,7 +17844,7 @@
         <v>42</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>40</v>
@@ -17860,7 +17870,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17871,7 +17881,7 @@
         <v>40</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>42</v>
@@ -17883,19 +17893,19 @@
         <v>42</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>719</v>
+        <v>154</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>42</v>
@@ -17920,13 +17930,13 @@
         <v>42</v>
       </c>
       <c r="W142" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>42</v>
+        <v>717</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>42</v>
+        <v>718</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>42</v>
@@ -17944,13 +17954,13 @@
         <v>42</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>42</v>
@@ -17959,7 +17969,7 @@
         <v>63</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>724</v>
+        <v>42</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>42</v>
@@ -17970,7 +17980,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17993,17 +18003,17 @@
         <v>42</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>275</v>
+        <v>154</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>565</v>
+        <v>720</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>567</v>
+        <v>716</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>42</v>
@@ -18028,13 +18038,13 @@
         <v>42</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>42</v>
+        <v>722</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>42</v>
+        <v>723</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>42</v>
@@ -18052,7 +18062,7 @@
         <v>42</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>40</v>
@@ -18078,7 +18088,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18089,7 +18099,7 @@
         <v>40</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>42</v>
@@ -18101,16 +18111,20 @@
         <v>42</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>52</v>
+        <v>725</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>134</v>
+        <v>726</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
+        <v>727</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>729</v>
+      </c>
       <c r="O144" t="s" s="2">
         <v>42</v>
       </c>
@@ -18158,37 +18172,37 @@
         <v>42</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>136</v>
+        <v>724</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>42</v>
+        <v>730</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -18207,18 +18221,18 @@
         <v>42</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>139</v>
+        <v>571</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N145" s="2"/>
+        <v>732</v>
+      </c>
+      <c r="M145" s="2"/>
+      <c r="N145" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="O145" t="s" s="2">
         <v>42</v>
       </c>
@@ -18266,7 +18280,7 @@
         <v>42</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>142</v>
+        <v>731</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>40</v>
@@ -18278,7 +18292,7 @@
         <v>42</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>42</v>
@@ -18287,48 +18301,44 @@
         <v>42</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H146" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I146" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
         <v>42</v>
       </c>
@@ -18376,19 +18386,19 @@
         <v>42</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>42</v>
@@ -18397,23 +18407,23 @@
         <v>42</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>42</v>
@@ -18425,18 +18435,18 @@
         <v>42</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>355</v>
+        <v>96</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>578</v>
+        <v>139</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M147" s="2"/>
-      <c r="N147" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
         <v>42</v>
       </c>
@@ -18484,19 +18494,19 @@
         <v>42</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>730</v>
+        <v>142</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>42</v>
@@ -18505,45 +18515,47 @@
         <v>42</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>598</v>
+        <v>284</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="M148" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="N148" t="s" s="2">
-        <v>600</v>
+        <v>123</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>42</v>
@@ -18568,13 +18580,13 @@
         <v>42</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>601</v>
+        <v>42</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>602</v>
+        <v>42</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>42</v>
@@ -18592,19 +18604,19 @@
         <v>42</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>731</v>
+        <v>286</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>42</v>
@@ -18613,12 +18625,12 @@
         <v>42</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18626,7 +18638,7 @@
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F149" t="s" s="2">
         <v>50</v>
@@ -18641,19 +18653,17 @@
         <v>42</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>154</v>
+        <v>355</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>606</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="M149" s="2"/>
       <c r="N149" t="s" s="2">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>42</v>
@@ -18678,13 +18688,13 @@
         <v>42</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>608</v>
+        <v>42</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>609</v>
+        <v>42</v>
       </c>
       <c r="Z149" t="s" s="2">
         <v>42</v>
@@ -18702,10 +18712,10 @@
         <v>42</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>50</v>
@@ -18728,15 +18738,15 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>611</v>
+        <v>42</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F150" t="s" s="2">
         <v>50</v>
@@ -18754,16 +18764,14 @@
         <v>154</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>614</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="M150" s="2"/>
       <c r="N150" t="s" s="2">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>42</v>
@@ -18791,10 +18799,10 @@
         <v>211</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>42</v>
@@ -18812,10 +18820,10 @@
         <v>42</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>50</v>
@@ -18838,7 +18846,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18849,7 +18857,7 @@
         <v>40</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>42</v>
@@ -18864,16 +18872,16 @@
         <v>154</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>735</v>
+        <v>610</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>736</v>
+        <v>612</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>42</v>
@@ -18901,10 +18909,10 @@
         <v>211</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>42</v>
@@ -18922,13 +18930,13 @@
         <v>42</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>42</v>
@@ -18948,18 +18956,18 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>42</v>
+        <v>617</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>42</v>
@@ -18974,16 +18982,16 @@
         <v>154</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>42</v>
@@ -19011,10 +19019,10 @@
         <v>211</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>42</v>
@@ -19032,13 +19040,13 @@
         <v>42</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>42</v>
@@ -19058,7 +19066,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19069,7 +19077,7 @@
         <v>40</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>42</v>
@@ -19081,17 +19089,19 @@
         <v>42</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>644</v>
+        <v>154</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>645</v>
+        <v>741</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="M153" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>742</v>
+      </c>
       <c r="N153" t="s" s="2">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>42</v>
@@ -19116,13 +19126,13 @@
         <v>42</v>
       </c>
       <c r="W153" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>42</v>
+        <v>629</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>42</v>
+        <v>630</v>
       </c>
       <c r="Z153" t="s" s="2">
         <v>42</v>
@@ -19140,13 +19150,13 @@
         <v>42</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>42</v>
@@ -19166,7 +19176,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19177,7 +19187,7 @@
         <v>40</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>42</v>
@@ -19189,17 +19199,19 @@
         <v>42</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>691</v>
+        <v>154</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>692</v>
+        <v>632</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="M154" s="2"/>
+        <v>633</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>634</v>
+      </c>
       <c r="N154" t="s" s="2">
-        <v>694</v>
+        <v>635</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>42</v>
@@ -19224,13 +19236,13 @@
         <v>42</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>42</v>
+        <v>636</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>42</v>
+        <v>637</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>42</v>
@@ -19248,13 +19260,13 @@
         <v>42</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>42</v>
@@ -19274,7 +19286,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19297,19 +19309,17 @@
         <v>42</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>696</v>
+        <v>651</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>698</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="M155" s="2"/>
       <c r="N155" t="s" s="2">
-        <v>699</v>
+        <v>653</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>42</v>
@@ -19358,7 +19368,7 @@
         <v>42</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>40</v>
@@ -19384,7 +19394,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19407,19 +19417,17 @@
         <v>42</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>703</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="M156" s="2"/>
       <c r="N156" t="s" s="2">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>42</v>
@@ -19468,7 +19476,7 @@
         <v>42</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>40</v>
@@ -19494,7 +19502,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19505,7 +19513,7 @@
         <v>40</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>42</v>
@@ -19517,17 +19525,19 @@
         <v>42</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>493</v>
+        <v>660</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>494</v>
+        <v>702</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M157" s="2"/>
+        <v>703</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>704</v>
+      </c>
       <c r="N157" t="s" s="2">
-        <v>496</v>
+        <v>705</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>42</v>
@@ -19576,13 +19586,13 @@
         <v>42</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>42</v>
@@ -19602,7 +19612,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19613,7 +19623,7 @@
         <v>40</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>42</v>
@@ -19625,17 +19635,19 @@
         <v>42</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>275</v>
+        <v>697</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>565</v>
+        <v>707</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="M158" s="2"/>
+        <v>708</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>709</v>
+      </c>
       <c r="N158" t="s" s="2">
-        <v>567</v>
+        <v>710</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>42</v>
@@ -19684,13 +19696,13 @@
         <v>42</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>42</v>
@@ -19710,7 +19722,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19721,7 +19733,7 @@
         <v>40</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>42</v>
@@ -19733,16 +19745,18 @@
         <v>42</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>52</v>
+        <v>499</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>134</v>
+        <v>500</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>135</v>
+        <v>501</v>
       </c>
       <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
+      <c r="N159" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="O159" t="s" s="2">
         <v>42</v>
       </c>
@@ -19790,19 +19804,19 @@
         <v>42</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>136</v>
+        <v>748</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>42</v>
@@ -19811,16 +19825,16 @@
         <v>42</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -19839,18 +19853,18 @@
         <v>42</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>139</v>
+        <v>571</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N160" s="2"/>
+        <v>732</v>
+      </c>
+      <c r="M160" s="2"/>
+      <c r="N160" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="O160" t="s" s="2">
         <v>42</v>
       </c>
@@ -19898,7 +19912,7 @@
         <v>42</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>142</v>
+        <v>749</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>40</v>
@@ -19910,7 +19924,7 @@
         <v>42</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>42</v>
@@ -19919,48 +19933,44 @@
         <v>42</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H161" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I161" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
         <v>42</v>
       </c>
@@ -20008,19 +20018,19 @@
         <v>42</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>42</v>
@@ -20029,23 +20039,23 @@
         <v>42</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>42</v>
@@ -20057,18 +20067,18 @@
         <v>42</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>355</v>
+        <v>96</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>578</v>
+        <v>139</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M162" s="2"/>
-      <c r="N162" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
         <v>42</v>
       </c>
@@ -20116,19 +20126,19 @@
         <v>42</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>747</v>
+        <v>142</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>42</v>
@@ -20137,45 +20147,47 @@
         <v>42</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>598</v>
+        <v>284</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="M163" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="N163" t="s" s="2">
-        <v>600</v>
+        <v>123</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>42</v>
@@ -20200,13 +20212,13 @@
         <v>42</v>
       </c>
       <c r="W163" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>601</v>
+        <v>42</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>602</v>
+        <v>42</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>42</v>
@@ -20224,19 +20236,19 @@
         <v>42</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>748</v>
+        <v>286</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>42</v>
@@ -20245,12 +20257,12 @@
         <v>42</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20258,7 +20270,7 @@
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F164" t="s" s="2">
         <v>50</v>
@@ -20273,19 +20285,17 @@
         <v>42</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>154</v>
+        <v>355</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>606</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>42</v>
@@ -20310,13 +20320,13 @@
         <v>42</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>608</v>
+        <v>42</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>609</v>
+        <v>42</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>42</v>
@@ -20334,10 +20344,10 @@
         <v>42</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>50</v>
@@ -20360,7 +20370,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20368,7 +20378,7 @@
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F165" t="s" s="2">
         <v>50</v>
@@ -20386,16 +20396,14 @@
         <v>154</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>614</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="M165" s="2"/>
       <c r="N165" t="s" s="2">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>42</v>
@@ -20423,10 +20431,10 @@
         <v>211</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>42</v>
@@ -20444,10 +20452,10 @@
         <v>42</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>50</v>
@@ -20470,7 +20478,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20481,7 +20489,7 @@
         <v>40</v>
       </c>
       <c r="F166" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>42</v>
@@ -20496,16 +20504,16 @@
         <v>154</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>735</v>
+        <v>610</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>736</v>
+        <v>612</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>42</v>
@@ -20533,10 +20541,10 @@
         <v>211</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>42</v>
@@ -20554,13 +20562,13 @@
         <v>42</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>42</v>
@@ -20580,7 +20588,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20588,10 +20596,10 @@
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>42</v>
@@ -20606,16 +20614,16 @@
         <v>154</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>42</v>
@@ -20643,10 +20651,10 @@
         <v>211</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>42</v>
@@ -20664,13 +20672,13 @@
         <v>42</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>42</v>
@@ -20690,7 +20698,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20701,7 +20709,7 @@
         <v>40</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>42</v>
@@ -20713,17 +20721,19 @@
         <v>42</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>644</v>
+        <v>154</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>645</v>
+        <v>741</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="M168" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>742</v>
+      </c>
       <c r="N168" t="s" s="2">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>42</v>
@@ -20748,13 +20758,13 @@
         <v>42</v>
       </c>
       <c r="W168" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>42</v>
+        <v>629</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>42</v>
+        <v>630</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>42</v>
@@ -20772,13 +20782,13 @@
         <v>42</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>42</v>
@@ -20798,7 +20808,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20809,7 +20819,7 @@
         <v>40</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>42</v>
@@ -20821,17 +20831,19 @@
         <v>42</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>691</v>
+        <v>154</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>692</v>
+        <v>632</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="M169" s="2"/>
+        <v>633</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>634</v>
+      </c>
       <c r="N169" t="s" s="2">
-        <v>694</v>
+        <v>635</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>42</v>
@@ -20856,13 +20868,13 @@
         <v>42</v>
       </c>
       <c r="W169" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>42</v>
+        <v>636</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>42</v>
+        <v>637</v>
       </c>
       <c r="Z169" t="s" s="2">
         <v>42</v>
@@ -20880,13 +20892,13 @@
         <v>42</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>42</v>
@@ -20906,7 +20918,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20929,19 +20941,17 @@
         <v>42</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>696</v>
+        <v>651</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>698</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>699</v>
+        <v>653</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>42</v>
@@ -20990,7 +21000,7 @@
         <v>42</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>40</v>
@@ -21016,7 +21026,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21039,19 +21049,17 @@
         <v>42</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>703</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>42</v>
@@ -21100,7 +21108,7 @@
         <v>42</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>40</v>
@@ -21126,7 +21134,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21137,7 +21145,7 @@
         <v>40</v>
       </c>
       <c r="F172" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G172" t="s" s="2">
         <v>42</v>
@@ -21149,17 +21157,19 @@
         <v>42</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>493</v>
+        <v>660</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>494</v>
+        <v>702</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M172" s="2"/>
+        <v>703</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>704</v>
+      </c>
       <c r="N172" t="s" s="2">
-        <v>496</v>
+        <v>705</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>42</v>
@@ -21208,13 +21218,13 @@
         <v>42</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>42</v>
@@ -21234,7 +21244,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21257,17 +21267,19 @@
         <v>42</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>759</v>
+        <v>707</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="M173" s="2"/>
+        <v>708</v>
+      </c>
+      <c r="M173" t="s" s="2">
+        <v>709</v>
+      </c>
       <c r="N173" t="s" s="2">
-        <v>761</v>
+        <v>710</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>42</v>
@@ -21316,7 +21328,7 @@
         <v>42</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>40</v>
@@ -21340,8 +21352,224 @@
         <v>42</v>
       </c>
     </row>
+    <row r="174" hidden="true">
+      <c r="A174" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="B174" s="2"/>
+      <c r="C174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F174" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J174" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="K174" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L174" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M174" s="2"/>
+      <c r="N174" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="O174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P174" s="2"/>
+      <c r="Q174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE174" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="AF174" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG174" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI174" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL174" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" hidden="true">
+      <c r="A175" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D175" s="2"/>
+      <c r="E175" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F175" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="M175" s="2"/>
+      <c r="N175" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="O175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P175" s="2"/>
+      <c r="Q175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE175" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="AF175" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG175" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI175" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL175" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL173">
+  <autoFilter ref="A1:AL175">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -21351,7 +21579,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI172">
+  <conditionalFormatting sqref="A2:AI174">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6666" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6700" uniqueCount="861">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1855,6 +1855,16 @@
   </si>
   <si>
     <t>Indicates whether the claim is a crossover claim where a portion is paid by Medicare</t>
+  </si>
+  <si>
+    <t>lineOfBusiness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/line-of-business}
+</t>
+  </si>
+  <si>
+    <t>Code for the line of business</t>
   </si>
   <si>
     <t>priorAuthorizationIndicator</t>
@@ -2972,7 +2982,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL194"/>
+  <dimension ref="A1:AL195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -15135,43 +15145,41 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B113" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>361</v>
+        <v>75</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>129</v>
+        <v>596</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>362</v>
+        <v>597</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>75</v>
       </c>
@@ -15219,7 +15227,7 @@
         <v>75</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>364</v>
+        <v>170</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>73</v>
@@ -15228,7 +15236,7 @@
         <v>74</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>135</v>
@@ -15245,40 +15253,42 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I114" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>433</v>
+        <v>129</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>597</v>
+        <v>362</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M114" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="N114" t="s" s="2">
-        <v>599</v>
+        <v>210</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>75</v>
@@ -15327,19 +15337,19 @@
         <v>75</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>596</v>
+        <v>364</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>75</v>
@@ -15348,12 +15358,12 @@
         <v>75</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15376,19 +15386,17 @@
         <v>84</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="L115" t="s" s="2">
+      <c r="M115" s="2"/>
+      <c r="N115" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>75</v>
@@ -15437,7 +15445,7 @@
         <v>75</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>83</v>
@@ -15463,7 +15471,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15471,7 +15479,7 @@
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F116" t="s" s="2">
         <v>83</v>
@@ -15483,22 +15491,22 @@
         <v>75</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>214</v>
+        <v>444</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>75</v>
@@ -15547,10 +15555,10 @@
         <v>75</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>83</v>
@@ -15562,10 +15570,10 @@
         <v>96</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>218</v>
+        <v>75</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>75</v>
@@ -15573,7 +15581,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15581,7 +15589,7 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F117" t="s" s="2">
         <v>83</v>
@@ -15593,20 +15601,22 @@
         <v>75</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J117" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="K117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="M117" s="2"/>
-      <c r="N117" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>75</v>
@@ -15655,10 +15665,10 @@
         <v>75</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>83</v>
@@ -15670,10 +15680,10 @@
         <v>96</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>75</v>
@@ -15681,7 +15691,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15689,7 +15699,7 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F118" t="s" s="2">
         <v>83</v>
@@ -15701,20 +15711,20 @@
         <v>75</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>85</v>
+        <v>614</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>75</v>
@@ -15763,10 +15773,10 @@
         <v>75</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>83</v>
@@ -15789,7 +15799,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15800,7 +15810,7 @@
         <v>73</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>75</v>
@@ -15815,16 +15825,14 @@
         <v>85</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="M119" s="2"/>
+      <c r="N119" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>75</v>
@@ -15873,13 +15881,13 @@
         <v>75</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>75</v>
@@ -15899,7 +15907,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15910,7 +15918,7 @@
         <v>73</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>75</v>
@@ -15922,19 +15930,19 @@
         <v>75</v>
       </c>
       <c r="J120" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="K120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>75</v>
@@ -15983,13 +15991,13 @@
         <v>75</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>75</v>
@@ -16009,7 +16017,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16032,17 +16040,19 @@
         <v>75</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>353</v>
+        <v>628</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="M121" s="2"/>
-      <c r="N121" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>75</v>
@@ -16091,7 +16101,7 @@
         <v>75</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>73</v>
@@ -16117,7 +16127,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16140,16 +16150,18 @@
         <v>75</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>85</v>
+        <v>353</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>164</v>
+        <v>634</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>165</v>
+        <v>635</v>
       </c>
       <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
+      <c r="N122" t="s" s="2">
+        <v>636</v>
+      </c>
       <c r="O122" t="s" s="2">
         <v>75</v>
       </c>
@@ -16197,7 +16209,7 @@
         <v>75</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>166</v>
+        <v>633</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>73</v>
@@ -16209,7 +16221,7 @@
         <v>75</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>75</v>
@@ -16218,23 +16230,23 @@
         <v>75</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>75</v>
@@ -16246,17 +16258,15 @@
         <v>75</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>75</v>
@@ -16305,19 +16315,19 @@
         <v>75</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>75</v>
@@ -16331,11 +16341,11 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>361</v>
+        <v>206</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -16348,26 +16358,24 @@
         <v>75</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J124" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>362</v>
+        <v>222</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>363</v>
+        <v>223</v>
       </c>
       <c r="M124" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="N124" t="s" s="2">
-        <v>210</v>
-      </c>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>75</v>
       </c>
@@ -16415,7 +16423,7 @@
         <v>75</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>364</v>
+        <v>170</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>73</v>
@@ -16436,47 +16444,47 @@
         <v>75</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>638</v>
+        <v>129</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>639</v>
+        <v>362</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>640</v>
+        <v>363</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>641</v>
+        <v>209</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>642</v>
+        <v>210</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>75</v>
@@ -16525,19 +16533,19 @@
         <v>75</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>637</v>
+        <v>364</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>75</v>
@@ -16546,12 +16554,12 @@
         <v>75</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16559,7 +16567,7 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F126" t="s" s="2">
         <v>83</v>
@@ -16574,17 +16582,19 @@
         <v>75</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>178</v>
+        <v>641</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="M126" s="2"/>
-      <c r="N126" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>75</v>
@@ -16609,13 +16619,13 @@
         <v>75</v>
       </c>
       <c r="W126" t="s" s="2">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>647</v>
+        <v>75</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>648</v>
+        <v>75</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>75</v>
@@ -16633,10 +16643,10 @@
         <v>75</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>83</v>
@@ -16659,7 +16669,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16682,17 +16692,17 @@
         <v>75</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>650</v>
+        <v>178</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>75</v>
@@ -16717,13 +16727,13 @@
         <v>75</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>75</v>
+        <v>650</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>75</v>
+        <v>651</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>75</v>
@@ -16741,7 +16751,7 @@
         <v>75</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>73</v>
@@ -16767,7 +16777,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16778,7 +16788,7 @@
         <v>73</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>75</v>
@@ -16790,17 +16800,17 @@
         <v>75</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>353</v>
+        <v>653</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>75</v>
@@ -16849,13 +16859,13 @@
         <v>75</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>75</v>
@@ -16875,7 +16885,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16886,7 +16896,7 @@
         <v>73</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>75</v>
@@ -16898,16 +16908,18 @@
         <v>75</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>85</v>
+        <v>353</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>164</v>
+        <v>658</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>165</v>
+        <v>659</v>
       </c>
       <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
+      <c r="N129" t="s" s="2">
+        <v>660</v>
+      </c>
       <c r="O129" t="s" s="2">
         <v>75</v>
       </c>
@@ -16955,19 +16967,19 @@
         <v>75</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>166</v>
+        <v>657</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>75</v>
@@ -16976,12 +16988,12 @@
         <v>75</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16992,7 +17004,7 @@
         <v>73</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>75</v>
@@ -17004,13 +17016,13 @@
         <v>75</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -17049,29 +17061,31 @@
         <v>75</v>
       </c>
       <c r="AA130" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AB130" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC130" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD130" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>75</v>
@@ -17080,16 +17094,14 @@
         <v>75</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>75</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>660</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
         <v>75</v>
       </c>
@@ -17098,7 +17110,7 @@
         <v>73</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>75</v>
@@ -17110,13 +17122,13 @@
         <v>75</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>661</v>
+        <v>129</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>662</v>
+        <v>130</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>662</v>
+        <v>131</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -17155,16 +17167,14 @@
         <v>75</v>
       </c>
       <c r="AA131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AB131" s="2"/>
       <c r="AC131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD131" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AE131" t="s" s="2">
         <v>170</v>
@@ -17176,7 +17186,7 @@
         <v>74</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>135</v>
@@ -17188,12 +17198,12 @@
         <v>75</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>663</v>
@@ -17301,7 +17311,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>666</v>
@@ -17409,7 +17419,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>669</v>
@@ -17517,43 +17527,41 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B135" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>361</v>
+        <v>75</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>129</v>
+        <v>673</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>362</v>
+        <v>674</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>75</v>
       </c>
@@ -17601,7 +17609,7 @@
         <v>75</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>364</v>
+        <v>170</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>73</v>
@@ -17610,7 +17618,7 @@
         <v>74</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>135</v>
@@ -17627,40 +17635,42 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H136" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>433</v>
+        <v>129</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>674</v>
+        <v>362</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="M136" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="N136" t="s" s="2">
-        <v>676</v>
+        <v>210</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>75</v>
@@ -17709,19 +17719,19 @@
         <v>75</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>673</v>
+        <v>364</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>75</v>
@@ -17730,12 +17740,12 @@
         <v>75</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17743,10 +17753,10 @@
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>75</v>
@@ -17761,14 +17771,14 @@
         <v>433</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="L137" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>75</v>
@@ -17817,13 +17827,13 @@
         <v>75</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>75</v>
@@ -17843,7 +17853,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17869,14 +17879,14 @@
         <v>433</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="L138" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>75</v>
@@ -17925,7 +17935,7 @@
         <v>75</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>73</v>
@@ -17951,7 +17961,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17977,14 +17987,14 @@
         <v>433</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="L139" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>75</v>
@@ -18033,7 +18043,7 @@
         <v>75</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>73</v>
@@ -18059,7 +18069,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18085,14 +18095,14 @@
         <v>433</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>75</v>
@@ -18141,7 +18151,7 @@
         <v>75</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>73</v>
@@ -18167,7 +18177,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18178,7 +18188,7 @@
         <v>73</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>75</v>
@@ -18190,17 +18200,17 @@
         <v>75</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>178</v>
+        <v>433</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>694</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>695</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>75</v>
@@ -18225,13 +18235,13 @@
         <v>75</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>340</v>
+        <v>75</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>697</v>
+        <v>75</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>698</v>
+        <v>75</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>75</v>
@@ -18249,13 +18259,13 @@
         <v>75</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>75</v>
@@ -18275,7 +18285,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18301,16 +18311,14 @@
         <v>178</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>702</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>75</v>
@@ -18338,10 +18346,10 @@
         <v>340</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>75</v>
@@ -18359,7 +18367,7 @@
         <v>75</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>73</v>
@@ -18385,15 +18393,15 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>707</v>
+        <v>75</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F143" t="s" s="2">
         <v>83</v>
@@ -18411,16 +18419,16 @@
         <v>178</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>75</v>
@@ -18448,10 +18456,10 @@
         <v>340</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>75</v>
@@ -18469,10 +18477,10 @@
         <v>75</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>83</v>
@@ -18495,18 +18503,18 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>75</v>
+        <v>710</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>75</v>
@@ -18521,16 +18529,16 @@
         <v>178</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>75</v>
@@ -18558,10 +18566,10 @@
         <v>340</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>75</v>
@@ -18579,13 +18587,13 @@
         <v>75</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>75</v>
@@ -18605,7 +18613,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18631,16 +18639,16 @@
         <v>178</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>75</v>
@@ -18668,10 +18676,10 @@
         <v>340</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>75</v>
@@ -18689,7 +18697,7 @@
         <v>75</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>73</v>
@@ -18715,7 +18723,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18726,7 +18734,7 @@
         <v>73</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>75</v>
@@ -18738,17 +18746,19 @@
         <v>75</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>487</v>
+        <v>178</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="M146" s="2"/>
+        <v>726</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>727</v>
+      </c>
       <c r="N146" t="s" s="2">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>75</v>
@@ -18773,13 +18783,13 @@
         <v>75</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>75</v>
+        <v>729</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>75</v>
+        <v>730</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>75</v>
@@ -18797,13 +18807,13 @@
         <v>75</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>75</v>
@@ -18815,7 +18825,7 @@
         <v>75</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>309</v>
+        <v>75</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>75</v>
@@ -18823,7 +18833,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18846,17 +18856,17 @@
         <v>75</v>
       </c>
       <c r="J147" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>733</v>
-      </c>
-      <c r="K147" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>735</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>75</v>
@@ -18881,13 +18891,13 @@
         <v>75</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>340</v>
+        <v>75</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>737</v>
+        <v>75</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>738</v>
+        <v>75</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>75</v>
@@ -18905,7 +18915,7 @@
         <v>75</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>73</v>
@@ -18923,7 +18933,7 @@
         <v>75</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>424</v>
+        <v>309</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>75</v>
@@ -18931,7 +18941,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18954,17 +18964,17 @@
         <v>75</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" t="s" s="2">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>75</v>
@@ -18989,13 +18999,13 @@
         <v>75</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>75</v>
+        <v>740</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>75</v>
+        <v>741</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>75</v>
@@ -19013,7 +19023,7 @@
         <v>75</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>73</v>
@@ -19031,7 +19041,7 @@
         <v>75</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>75</v>
+        <v>424</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>75</v>
@@ -19039,7 +19049,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19062,16 +19072,18 @@
         <v>75</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>85</v>
+        <v>743</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>164</v>
+        <v>744</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>165</v>
+        <v>745</v>
       </c>
       <c r="M149" s="2"/>
-      <c r="N149" s="2"/>
+      <c r="N149" t="s" s="2">
+        <v>746</v>
+      </c>
       <c r="O149" t="s" s="2">
         <v>75</v>
       </c>
@@ -19119,7 +19131,7 @@
         <v>75</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>166</v>
+        <v>742</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>73</v>
@@ -19131,7 +19143,7 @@
         <v>75</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>75</v>
@@ -19140,23 +19152,23 @@
         <v>75</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>75</v>
@@ -19168,17 +19180,15 @@
         <v>75</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M150" s="2"/>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
         <v>75</v>
@@ -19215,31 +19225,31 @@
         <v>75</v>
       </c>
       <c r="AA150" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="AB150" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="AC150" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD150" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>75</v>
@@ -19253,20 +19263,18 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="B151" t="s" s="2">
-        <v>746</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>75</v>
@@ -19278,15 +19286,17 @@
         <v>75</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>747</v>
+        <v>129</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>748</v>
+        <v>222</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="M151" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
         <v>75</v>
@@ -19323,16 +19333,16 @@
         <v>75</v>
       </c>
       <c r="AA151" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AB151" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AC151" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD151" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AE151" t="s" s="2">
         <v>170</v>
@@ -19356,14 +19366,16 @@
         <v>75</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="B152" t="s" s="2">
         <v>749</v>
       </c>
-      <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
         <v>75</v>
       </c>
@@ -19381,7 +19393,7 @@
         <v>75</v>
       </c>
       <c r="I152" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J152" t="s" s="2">
         <v>750</v>
@@ -19390,14 +19402,10 @@
         <v>751</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>752</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>754</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
         <v>75</v>
       </c>
@@ -19445,19 +19453,19 @@
         <v>75</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>755</v>
+        <v>170</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>75</v>
@@ -19466,12 +19474,12 @@
         <v>75</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>756</v>
+        <v>97</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19482,80 +19490,80 @@
         <v>73</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>105</v>
+        <v>753</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="O153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P153" s="2"/>
+      <c r="Q153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE153" t="s" s="2">
         <v>758</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>759</v>
-      </c>
-      <c r="M153" s="2"/>
-      <c r="N153" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P153" t="s" s="2">
-        <v>761</v>
-      </c>
-      <c r="Q153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W153" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="X153" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="Y153" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="Z153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE153" t="s" s="2">
-        <v>764</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>73</v>
@@ -19576,12 +19584,12 @@
         <v>75</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19592,34 +19600,36 @@
         <v>73</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I154" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" t="s" s="2">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="P154" s="2"/>
+      <c r="P154" t="s" s="2">
+        <v>764</v>
+      </c>
       <c r="Q154" t="s" s="2">
         <v>75</v>
       </c>
@@ -19639,13 +19649,13 @@
         <v>75</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>75</v>
+        <v>765</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>75</v>
+        <v>766</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>75</v>
@@ -19663,7 +19673,7 @@
         <v>75</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>73</v>
@@ -19684,12 +19694,12 @@
         <v>75</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19712,17 +19722,17 @@
         <v>84</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" t="s" s="2">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>75</v>
@@ -19771,7 +19781,7 @@
         <v>75</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>73</v>
@@ -19780,7 +19790,7 @@
         <v>83</v>
       </c>
       <c r="AH155" t="s" s="2">
-        <v>777</v>
+        <v>75</v>
       </c>
       <c r="AI155" t="s" s="2">
         <v>96</v>
@@ -19792,12 +19802,12 @@
         <v>75</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19820,19 +19830,17 @@
         <v>84</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>781</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>782</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="M156" s="2"/>
       <c r="N156" t="s" s="2">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>75</v>
@@ -19881,7 +19889,7 @@
         <v>75</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>73</v>
@@ -19890,7 +19898,7 @@
         <v>83</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>75</v>
+        <v>780</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>96</v>
@@ -19902,12 +19910,12 @@
         <v>75</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19927,20 +19935,22 @@
         <v>75</v>
       </c>
       <c r="I157" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>787</v>
+        <v>105</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>789</v>
-      </c>
-      <c r="M157" s="2"/>
+        <v>784</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>785</v>
+      </c>
       <c r="N157" t="s" s="2">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>75</v>
@@ -19989,7 +19999,7 @@
         <v>75</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>73</v>
@@ -20010,12 +20020,12 @@
         <v>75</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>75</v>
+        <v>788</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20038,19 +20048,17 @@
         <v>75</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>750</v>
+        <v>790</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="L158" t="s" s="2">
         <v>792</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="M158" s="2"/>
+      <c r="N158" t="s" s="2">
         <v>793</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>794</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>795</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>75</v>
@@ -20099,7 +20107,7 @@
         <v>75</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>73</v>
@@ -20125,7 +20133,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20148,19 +20156,19 @@
         <v>75</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>787</v>
+        <v>753</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="M159" t="s" s="2">
         <v>797</v>
       </c>
-      <c r="L159" t="s" s="2">
+      <c r="N159" t="s" s="2">
         <v>798</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>800</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>75</v>
@@ -20209,7 +20217,7 @@
         <v>75</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>73</v>
@@ -20235,7 +20243,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20246,7 +20254,7 @@
         <v>73</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>75</v>
@@ -20258,17 +20266,19 @@
         <v>75</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>577</v>
+        <v>790</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>578</v>
+        <v>800</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M160" s="2"/>
+        <v>801</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>802</v>
+      </c>
       <c r="N160" t="s" s="2">
-        <v>580</v>
+        <v>803</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>75</v>
@@ -20317,13 +20327,13 @@
         <v>75</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>75</v>
@@ -20343,7 +20353,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20354,7 +20364,7 @@
         <v>73</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>75</v>
@@ -20366,19 +20376,17 @@
         <v>75</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>178</v>
+        <v>577</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>803</v>
+        <v>578</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>804</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>805</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>806</v>
+        <v>580</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>75</v>
@@ -20403,13 +20411,13 @@
         <v>75</v>
       </c>
       <c r="W161" t="s" s="2">
-        <v>340</v>
+        <v>75</v>
       </c>
       <c r="X161" t="s" s="2">
-        <v>807</v>
+        <v>75</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>808</v>
+        <v>75</v>
       </c>
       <c r="Z161" t="s" s="2">
         <v>75</v>
@@ -20427,13 +20435,13 @@
         <v>75</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>75</v>
@@ -20453,7 +20461,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20464,7 +20472,7 @@
         <v>73</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>75</v>
@@ -20479,14 +20487,16 @@
         <v>178</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>811</v>
-      </c>
-      <c r="M162" s="2"/>
+        <v>807</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>808</v>
+      </c>
       <c r="N162" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>75</v>
@@ -20514,10 +20524,10 @@
         <v>340</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="Z162" t="s" s="2">
         <v>75</v>
@@ -20535,13 +20545,13 @@
         <v>75</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>75</v>
@@ -20561,7 +20571,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20584,19 +20594,17 @@
         <v>75</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>815</v>
+        <v>178</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>818</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>75</v>
@@ -20621,13 +20629,13 @@
         <v>75</v>
       </c>
       <c r="W163" t="s" s="2">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>75</v>
+        <v>815</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>75</v>
+        <v>816</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>75</v>
@@ -20645,7 +20653,7 @@
         <v>75</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>73</v>
@@ -20660,7 +20668,7 @@
         <v>96</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>820</v>
+        <v>75</v>
       </c>
       <c r="AK163" t="s" s="2">
         <v>75</v>
@@ -20671,7 +20679,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20694,17 +20702,19 @@
         <v>75</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>353</v>
+        <v>818</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>655</v>
+        <v>819</v>
       </c>
       <c r="L164" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="N164" t="s" s="2">
         <v>822</v>
-      </c>
-      <c r="M164" s="2"/>
-      <c r="N164" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>75</v>
@@ -20753,7 +20763,7 @@
         <v>75</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>73</v>
@@ -20768,7 +20778,7 @@
         <v>96</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>75</v>
+        <v>823</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>75</v>
@@ -20779,7 +20789,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20790,7 +20800,7 @@
         <v>73</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>75</v>
@@ -20802,16 +20812,18 @@
         <v>75</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>85</v>
+        <v>353</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>164</v>
+        <v>658</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>165</v>
+        <v>825</v>
       </c>
       <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
+      <c r="N165" t="s" s="2">
+        <v>660</v>
+      </c>
       <c r="O165" t="s" s="2">
         <v>75</v>
       </c>
@@ -20859,19 +20871,19 @@
         <v>75</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>166</v>
+        <v>824</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>75</v>
@@ -20880,23 +20892,23 @@
         <v>75</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F166" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>75</v>
@@ -20908,17 +20920,15 @@
         <v>75</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M166" s="2"/>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
         <v>75</v>
@@ -20967,19 +20977,19 @@
         <v>75</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>75</v>
@@ -20993,11 +21003,11 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
-        <v>361</v>
+        <v>206</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -21010,26 +21020,24 @@
         <v>75</v>
       </c>
       <c r="H167" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I167" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J167" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>362</v>
+        <v>222</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>363</v>
+        <v>223</v>
       </c>
       <c r="M167" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="N167" t="s" s="2">
-        <v>210</v>
-      </c>
+      <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
         <v>75</v>
       </c>
@@ -21077,7 +21085,7 @@
         <v>75</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>364</v>
+        <v>170</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>73</v>
@@ -21098,45 +21106,47 @@
         <v>75</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H168" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I168" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>433</v>
+        <v>129</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>674</v>
+        <v>362</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="M168" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="N168" t="s" s="2">
-        <v>676</v>
+        <v>210</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>75</v>
@@ -21185,19 +21195,19 @@
         <v>75</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>826</v>
+        <v>364</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>75</v>
@@ -21206,12 +21216,12 @@
         <v>75</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21219,7 +21229,7 @@
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F169" t="s" s="2">
         <v>83</v>
@@ -21234,17 +21244,17 @@
         <v>75</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>178</v>
+        <v>433</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>75</v>
@@ -21269,13 +21279,13 @@
         <v>75</v>
       </c>
       <c r="W169" t="s" s="2">
-        <v>340</v>
+        <v>75</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>697</v>
+        <v>75</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>698</v>
+        <v>75</v>
       </c>
       <c r="Z169" t="s" s="2">
         <v>75</v>
@@ -21293,10 +21303,10 @@
         <v>75</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>83</v>
@@ -21319,7 +21329,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21345,16 +21355,14 @@
         <v>178</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>702</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>75</v>
@@ -21382,10 +21390,10 @@
         <v>340</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>75</v>
@@ -21403,7 +21411,7 @@
         <v>75</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>73</v>
@@ -21429,15 +21437,15 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
-        <v>707</v>
+        <v>75</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F171" t="s" s="2">
         <v>83</v>
@@ -21455,16 +21463,16 @@
         <v>178</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>75</v>
@@ -21492,10 +21500,10 @@
         <v>340</v>
       </c>
       <c r="X171" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>75</v>
@@ -21513,10 +21521,10 @@
         <v>75</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>83</v>
@@ -21539,18 +21547,18 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>75</v>
+        <v>710</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F172" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G172" t="s" s="2">
         <v>75</v>
@@ -21565,16 +21573,16 @@
         <v>178</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>831</v>
+        <v>711</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>832</v>
+        <v>713</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>75</v>
@@ -21602,10 +21610,10 @@
         <v>340</v>
       </c>
       <c r="X172" t="s" s="2">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="Z172" t="s" s="2">
         <v>75</v>
@@ -21623,13 +21631,13 @@
         <v>75</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>75</v>
@@ -21675,16 +21683,16 @@
         <v>178</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>722</v>
+        <v>834</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>724</v>
+        <v>835</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>75</v>
@@ -21712,10 +21720,10 @@
         <v>340</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>75</v>
@@ -21759,7 +21767,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21770,7 +21778,7 @@
         <v>73</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>75</v>
@@ -21782,17 +21790,19 @@
         <v>75</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>740</v>
+        <v>178</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="M174" s="2"/>
+        <v>726</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>727</v>
+      </c>
       <c r="N174" t="s" s="2">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>75</v>
@@ -21817,13 +21827,13 @@
         <v>75</v>
       </c>
       <c r="W174" t="s" s="2">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>75</v>
+        <v>729</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>75</v>
+        <v>730</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>75</v>
@@ -21841,13 +21851,13 @@
         <v>75</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>75</v>
@@ -21867,7 +21877,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21890,17 +21900,17 @@
         <v>75</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>787</v>
+        <v>743</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>788</v>
+        <v>744</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>789</v>
+        <v>745</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" t="s" s="2">
-        <v>790</v>
+        <v>746</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>75</v>
@@ -21949,7 +21959,7 @@
         <v>75</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>73</v>
@@ -21975,7 +21985,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -21998,19 +22008,17 @@
         <v>75</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>750</v>
+        <v>790</v>
       </c>
       <c r="K176" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="L176" t="s" s="2">
         <v>792</v>
       </c>
-      <c r="L176" t="s" s="2">
+      <c r="M176" s="2"/>
+      <c r="N176" t="s" s="2">
         <v>793</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>794</v>
-      </c>
-      <c r="N176" t="s" s="2">
-        <v>795</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>75</v>
@@ -22059,7 +22067,7 @@
         <v>75</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>73</v>
@@ -22085,7 +22093,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22108,19 +22116,19 @@
         <v>75</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>787</v>
+        <v>753</v>
       </c>
       <c r="K177" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="L177" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="M177" t="s" s="2">
         <v>797</v>
       </c>
-      <c r="L177" t="s" s="2">
+      <c r="N177" t="s" s="2">
         <v>798</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>800</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>75</v>
@@ -22169,7 +22177,7 @@
         <v>75</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>73</v>
@@ -22195,7 +22203,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22206,7 +22214,7 @@
         <v>73</v>
       </c>
       <c r="F178" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>75</v>
@@ -22218,17 +22226,19 @@
         <v>75</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>577</v>
+        <v>790</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>578</v>
+        <v>800</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M178" s="2"/>
+        <v>801</v>
+      </c>
+      <c r="M178" t="s" s="2">
+        <v>802</v>
+      </c>
       <c r="N178" t="s" s="2">
-        <v>580</v>
+        <v>803</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>75</v>
@@ -22277,13 +22287,13 @@
         <v>75</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>75</v>
@@ -22303,7 +22313,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22326,17 +22336,17 @@
         <v>75</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>353</v>
+        <v>577</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>822</v>
+        <v>579</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>657</v>
+        <v>580</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>75</v>
@@ -22385,7 +22395,7 @@
         <v>75</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>73</v>
@@ -22411,7 +22421,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22422,7 +22432,7 @@
         <v>73</v>
       </c>
       <c r="F180" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G180" t="s" s="2">
         <v>75</v>
@@ -22434,16 +22444,18 @@
         <v>75</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>85</v>
+        <v>353</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>164</v>
+        <v>658</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>165</v>
+        <v>825</v>
       </c>
       <c r="M180" s="2"/>
-      <c r="N180" s="2"/>
+      <c r="N180" t="s" s="2">
+        <v>660</v>
+      </c>
       <c r="O180" t="s" s="2">
         <v>75</v>
       </c>
@@ -22491,19 +22503,19 @@
         <v>75</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>166</v>
+        <v>842</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>75</v>
@@ -22512,23 +22524,23 @@
         <v>75</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F181" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G181" t="s" s="2">
         <v>75</v>
@@ -22540,17 +22552,15 @@
         <v>75</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M181" s="2"/>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
         <v>75</v>
@@ -22599,19 +22609,19 @@
         <v>75</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>75</v>
@@ -22625,11 +22635,11 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
-        <v>361</v>
+        <v>206</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -22642,26 +22652,24 @@
         <v>75</v>
       </c>
       <c r="H182" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I182" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J182" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>362</v>
+        <v>222</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>363</v>
+        <v>223</v>
       </c>
       <c r="M182" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="N182" t="s" s="2">
-        <v>210</v>
-      </c>
+      <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
         <v>75</v>
       </c>
@@ -22709,7 +22717,7 @@
         <v>75</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>364</v>
+        <v>170</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>73</v>
@@ -22730,45 +22738,47 @@
         <v>75</v>
       </c>
       <c r="AL182" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F183" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G183" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I183" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>433</v>
+        <v>129</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>674</v>
+        <v>362</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="M183" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="N183" t="s" s="2">
-        <v>676</v>
+        <v>210</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>75</v>
@@ -22817,19 +22827,19 @@
         <v>75</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>843</v>
+        <v>364</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>75</v>
@@ -22838,12 +22848,12 @@
         <v>75</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -22851,7 +22861,7 @@
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F184" t="s" s="2">
         <v>83</v>
@@ -22866,17 +22876,17 @@
         <v>75</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>178</v>
+        <v>433</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" t="s" s="2">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>75</v>
@@ -22901,13 +22911,13 @@
         <v>75</v>
       </c>
       <c r="W184" t="s" s="2">
-        <v>340</v>
+        <v>75</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>697</v>
+        <v>75</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>698</v>
+        <v>75</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>75</v>
@@ -22925,10 +22935,10 @@
         <v>75</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>83</v>
@@ -22951,7 +22961,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -22977,16 +22987,14 @@
         <v>178</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="M185" t="s" s="2">
-        <v>702</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>75</v>
@@ -23014,10 +23022,10 @@
         <v>340</v>
       </c>
       <c r="X185" t="s" s="2">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="Z185" t="s" s="2">
         <v>75</v>
@@ -23035,7 +23043,7 @@
         <v>75</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>73</v>
@@ -23061,7 +23069,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -23069,7 +23077,7 @@
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F186" t="s" s="2">
         <v>83</v>
@@ -23087,16 +23095,16 @@
         <v>178</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>75</v>
@@ -23124,10 +23132,10 @@
         <v>340</v>
       </c>
       <c r="X186" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>75</v>
@@ -23145,10 +23153,10 @@
         <v>75</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>83</v>
@@ -23171,7 +23179,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -23179,10 +23187,10 @@
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F187" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G187" t="s" s="2">
         <v>75</v>
@@ -23197,16 +23205,16 @@
         <v>178</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>831</v>
+        <v>711</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>832</v>
+        <v>713</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>75</v>
@@ -23234,10 +23242,10 @@
         <v>340</v>
       </c>
       <c r="X187" t="s" s="2">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="Z187" t="s" s="2">
         <v>75</v>
@@ -23255,13 +23263,13 @@
         <v>75</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>75</v>
@@ -23281,7 +23289,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23307,16 +23315,16 @@
         <v>178</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>722</v>
+        <v>834</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>724</v>
+        <v>835</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>75</v>
@@ -23344,10 +23352,10 @@
         <v>340</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="Z188" t="s" s="2">
         <v>75</v>
@@ -23365,7 +23373,7 @@
         <v>75</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>73</v>
@@ -23391,7 +23399,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23402,7 +23410,7 @@
         <v>73</v>
       </c>
       <c r="F189" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G189" t="s" s="2">
         <v>75</v>
@@ -23414,17 +23422,19 @@
         <v>75</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>740</v>
+        <v>178</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="M189" s="2"/>
+        <v>726</v>
+      </c>
+      <c r="M189" t="s" s="2">
+        <v>727</v>
+      </c>
       <c r="N189" t="s" s="2">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>75</v>
@@ -23449,13 +23459,13 @@
         <v>75</v>
       </c>
       <c r="W189" t="s" s="2">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="X189" t="s" s="2">
-        <v>75</v>
+        <v>729</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>75</v>
+        <v>730</v>
       </c>
       <c r="Z189" t="s" s="2">
         <v>75</v>
@@ -23473,13 +23483,13 @@
         <v>75</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>75</v>
@@ -23499,7 +23509,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23522,17 +23532,17 @@
         <v>75</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>787</v>
+        <v>743</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>788</v>
+        <v>744</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>789</v>
+        <v>745</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>790</v>
+        <v>746</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>75</v>
@@ -23581,7 +23591,7 @@
         <v>75</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>73</v>
@@ -23607,7 +23617,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -23630,19 +23640,17 @@
         <v>75</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>750</v>
+        <v>790</v>
       </c>
       <c r="K191" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="L191" t="s" s="2">
         <v>792</v>
       </c>
-      <c r="L191" t="s" s="2">
+      <c r="M191" s="2"/>
+      <c r="N191" t="s" s="2">
         <v>793</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>794</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>795</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>75</v>
@@ -23691,7 +23699,7 @@
         <v>75</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>73</v>
@@ -23717,7 +23725,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -23740,19 +23748,19 @@
         <v>75</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>787</v>
+        <v>753</v>
       </c>
       <c r="K192" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="L192" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="M192" t="s" s="2">
         <v>797</v>
       </c>
-      <c r="L192" t="s" s="2">
+      <c r="N192" t="s" s="2">
         <v>798</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>800</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>75</v>
@@ -23801,7 +23809,7 @@
         <v>75</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>73</v>
@@ -23827,7 +23835,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -23838,7 +23846,7 @@
         <v>73</v>
       </c>
       <c r="F193" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G193" t="s" s="2">
         <v>75</v>
@@ -23850,17 +23858,19 @@
         <v>75</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>577</v>
+        <v>790</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>578</v>
+        <v>800</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M193" s="2"/>
+        <v>801</v>
+      </c>
+      <c r="M193" t="s" s="2">
+        <v>802</v>
+      </c>
       <c r="N193" t="s" s="2">
-        <v>580</v>
+        <v>803</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>75</v>
@@ -23909,13 +23919,13 @@
         <v>75</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>75</v>
@@ -23935,7 +23945,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -23946,7 +23956,7 @@
         <v>73</v>
       </c>
       <c r="F194" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G194" t="s" s="2">
         <v>75</v>
@@ -23958,17 +23968,17 @@
         <v>75</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>787</v>
+        <v>577</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>855</v>
+        <v>578</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>856</v>
+        <v>579</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" t="s" s="2">
-        <v>857</v>
+        <v>580</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>75</v>
@@ -24017,13 +24027,13 @@
         <v>75</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>75</v>
@@ -24038,6 +24048,114 @@
         <v>75</v>
       </c>
       <c r="AL194" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="B195" s="2"/>
+      <c r="C195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D195" s="2"/>
+      <c r="E195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F195" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J195" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="K195" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="L195" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="M195" s="2"/>
+      <c r="N195" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="O195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P195" s="2"/>
+      <c r="Q195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE195" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="AF195" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG195" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI195" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK195" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL195" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2987,37 +2987,37 @@
     <col min="1" max="1" width="43.17578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.04296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="48.375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="128.54296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.63671875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="124.6484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="42.62109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="42.625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim.xlsx
+++ b/StructureDefinition-cdm-claim.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6699" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6699" uniqueCount="862">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -275,263 +275,267 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Claim.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Claim.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Claim.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Claim.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Claim.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>Claim.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>aggregateClaimIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/aggregate-claim-indicator}
+</t>
+  </si>
+  <si>
+    <t>Indicates whether this claim record is included in the adjustment processing of the aggregate build logic for admissions, episodes or DCGs</t>
+  </si>
+  <si>
+    <t>claimSnapshotProviderName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-snapshot-provider-name}
+</t>
+  </si>
+  <si>
+    <t>Original provider name as reported on the claim</t>
+  </si>
+  <si>
+    <t>claimSnapshotProviderZipCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-snapshot-provider-zip-code}
+</t>
+  </si>
+  <si>
+    <t>Original provider postal code, as reported on the claim</t>
+  </si>
+  <si>
+    <t>companyCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/company-code}
+</t>
+  </si>
+  <si>
+    <t>Company code of the subscriber as reported on the claim</t>
+  </si>
+  <si>
+    <t>employeeBusinessUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employee-business-unit}
+</t>
+  </si>
+  <si>
+    <t>Business unit of the subscriber as reported on the claim</t>
+  </si>
+  <si>
+    <t>employer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employer}
+</t>
+  </si>
+  <si>
+    <t>Customer-specific code for the employer as reported on the claim record</t>
+  </si>
+  <si>
+    <t>financialSystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/financial-system}
+</t>
+  </si>
+  <si>
+    <t>Customer-specific code for the financial system</t>
+  </si>
+  <si>
+    <t>claimCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-category}
+</t>
+  </si>
+  <si>
+    <t>Standard HIPAA code for the category of the claim status</t>
+  </si>
+  <si>
+    <t>claimStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-status}
+</t>
+  </si>
+  <si>
+    <t>Standard HIPAA code for the status of an entire claim</t>
+  </si>
+  <si>
+    <t>Claim.extension.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Claim.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Claim.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Claim.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Claim.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Claim.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Claim.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>aggregateClaimIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/aggregate-claim-indicator}
-</t>
-  </si>
-  <si>
-    <t>Indicates whether this claim record is included in the adjustment processing of the aggregate build logic for admissions, episodes or DCGs</t>
-  </si>
-  <si>
-    <t>claimSnapshotProviderName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-snapshot-provider-name}
-</t>
-  </si>
-  <si>
-    <t>Original provider name as reported on the claim</t>
-  </si>
-  <si>
-    <t>claimSnapshotProviderZipCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-snapshot-provider-zip-code}
-</t>
-  </si>
-  <si>
-    <t>Original provider postal code, as reported on the claim</t>
-  </si>
-  <si>
-    <t>companyCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/company-code}
-</t>
-  </si>
-  <si>
-    <t>Company code of the subscriber as reported on the claim</t>
-  </si>
-  <si>
-    <t>employeeBusinessUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employee-business-unit}
-</t>
-  </si>
-  <si>
-    <t>Business unit of the subscriber as reported on the claim</t>
-  </si>
-  <si>
-    <t>employer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employer}
-</t>
-  </si>
-  <si>
-    <t>Customer-specific code for the employer as reported on the claim record</t>
-  </si>
-  <si>
-    <t>financialSystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/financial-system}
-</t>
-  </si>
-  <si>
-    <t>Customer-specific code for the financial system</t>
-  </si>
-  <si>
-    <t>claimCategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-category}
-</t>
-  </si>
-  <si>
-    <t>Standard HIPAA code for the category of the claim status</t>
-  </si>
-  <si>
-    <t>claimStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-status}
-</t>
-  </si>
-  <si>
-    <t>Standard HIPAA code for the status of an entire claim</t>
-  </si>
-  <si>
-    <t>Claim.extension.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4995,13 +4999,13 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -5052,7 +5056,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -5073,12 +5077,12 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -5149,7 +5153,7 @@
         <v>133</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>76</v>
@@ -5158,7 +5162,7 @@
         <v>134</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -5184,7 +5188,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -5210,13 +5214,13 @@
         <v>100</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -5224,7 +5228,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>76</v>
@@ -5266,7 +5270,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>84</v>
@@ -5292,7 +5296,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -5315,13 +5319,13 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -5360,17 +5364,17 @@
         <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -5396,10 +5400,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>76</v>
@@ -5421,13 +5425,13 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -5454,11 +5458,11 @@
         <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>76</v>
@@ -5476,7 +5480,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -5505,7 +5509,7 @@
         <v>129</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>76</v>
@@ -5527,13 +5531,13 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5613,7 +5617,7 @@
         <v>129</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>76</v>
@@ -5635,13 +5639,13 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5721,7 +5725,7 @@
         <v>129</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>76</v>
@@ -5743,13 +5747,13 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -5829,7 +5833,7 @@
         <v>129</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>76</v>
@@ -5851,13 +5855,13 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5937,7 +5941,7 @@
         <v>129</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>76</v>
@@ -5959,13 +5963,13 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -6045,7 +6049,7 @@
         <v>129</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>76</v>
@@ -6067,13 +6071,13 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -6150,11 +6154,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -6176,16 +6180,16 @@
         <v>130</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -6234,7 +6238,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
@@ -6260,11 +6264,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -6283,17 +6287,17 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -6342,7 +6346,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -6357,10 +6361,10 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -6368,7 +6372,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6391,13 +6395,13 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -6448,7 +6452,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -6469,16 +6473,16 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -6500,13 +6504,13 @@
         <v>130</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6547,7 +6551,7 @@
         <v>133</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>76</v>
@@ -6556,7 +6560,7 @@
         <v>134</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -6577,12 +6581,12 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6608,16 +6612,16 @@
         <v>106</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -6642,13 +6646,13 @@
         <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>76</v>
@@ -6666,7 +6670,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -6687,12 +6691,12 @@
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6715,19 +6719,19 @@
         <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -6752,11 +6756,11 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -6774,7 +6778,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -6795,12 +6799,12 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6826,16 +6830,16 @@
         <v>100</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -6848,7 +6852,7 @@
         <v>76</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>76</v>
@@ -6884,7 +6888,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -6905,12 +6909,12 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6933,16 +6937,16 @@
         <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6956,7 +6960,7 @@
         <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>76</v>
@@ -6992,7 +6996,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -7013,12 +7017,12 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -7041,13 +7045,13 @@
         <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -7098,7 +7102,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -7119,12 +7123,12 @@
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -7147,16 +7151,16 @@
         <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -7206,7 +7210,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -7227,12 +7231,12 @@
         <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7258,16 +7262,16 @@
         <v>106</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>76</v>
@@ -7292,13 +7296,13 @@
         <v>76</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>76</v>
@@ -7316,7 +7320,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>84</v>
@@ -7331,10 +7335,10 @@
         <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -7342,7 +7346,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7365,19 +7369,19 @@
         <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>76</v>
@@ -7402,11 +7406,11 @@
         <v>76</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>76</v>
@@ -7424,7 +7428,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>84</v>
@@ -7442,7 +7446,7 @@
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -7450,7 +7454,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7473,19 +7477,19 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
@@ -7510,11 +7514,11 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -7532,7 +7536,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -7550,7 +7554,7 @@
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -7558,7 +7562,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7584,14 +7588,14 @@
         <v>106</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -7616,13 +7620,13 @@
         <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>76</v>
@@ -7640,7 +7644,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>84</v>
@@ -7658,7 +7662,7 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -7666,7 +7670,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7689,17 +7693,17 @@
         <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -7748,7 +7752,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>84</v>
@@ -7763,10 +7767,10 @@
         <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -7774,7 +7778,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7797,19 +7801,19 @@
         <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -7858,7 +7862,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -7876,7 +7880,7 @@
         <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -7884,7 +7888,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7907,19 +7911,19 @@
         <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -7968,7 +7972,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>84</v>
@@ -7983,10 +7987,10 @@
         <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -7994,7 +7998,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -8017,17 +8021,17 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -8076,7 +8080,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -8094,7 +8098,7 @@
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -8102,7 +8106,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8125,13 +8129,13 @@
         <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -8182,7 +8186,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -8197,7 +8201,7 @@
         <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
@@ -8208,7 +8212,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8231,16 +8235,16 @@
         <v>85</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -8290,7 +8294,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>84</v>
@@ -8305,10 +8309,10 @@
         <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -8316,7 +8320,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8339,19 +8343,19 @@
         <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>76</v>
@@ -8376,13 +8380,13 @@
         <v>76</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>76</v>
@@ -8400,7 +8404,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>84</v>
@@ -8415,7 +8419,7 @@
         <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>76</v>
@@ -8426,11 +8430,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -8449,19 +8453,19 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>76</v>
@@ -8486,13 +8490,13 @@
         <v>76</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>76</v>
@@ -8510,7 +8514,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
@@ -8536,7 +8540,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8559,19 +8563,19 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -8620,7 +8624,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -8646,7 +8650,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8669,13 +8673,13 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8726,7 +8730,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -8747,16 +8751,16 @@
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8778,13 +8782,13 @@
         <v>130</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8834,7 +8838,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -8855,16 +8859,16 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8886,16 +8890,16 @@
         <v>130</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -8944,7 +8948,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -8970,7 +8974,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8993,17 +8997,17 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -9052,7 +9056,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -9067,7 +9071,7 @@
         <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
@@ -9078,7 +9082,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9101,19 +9105,19 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>76</v>
@@ -9138,13 +9142,13 @@
         <v>76</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>76</v>
@@ -9162,7 +9166,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -9188,7 +9192,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9211,19 +9215,19 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
@@ -9272,7 +9276,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -9298,7 +9302,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9321,17 +9325,17 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>76</v>
@@ -9380,7 +9384,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -9406,7 +9410,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9429,19 +9433,19 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -9490,7 +9494,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -9516,7 +9520,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9539,19 +9543,19 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -9600,7 +9604,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -9626,7 +9630,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9649,13 +9653,13 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9706,7 +9710,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -9727,16 +9731,16 @@
         <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9758,13 +9762,13 @@
         <v>130</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9814,7 +9818,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -9835,16 +9839,16 @@
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9866,16 +9870,16 @@
         <v>130</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>76</v>
@@ -9924,7 +9928,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -9950,7 +9954,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9973,17 +9977,17 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>76</v>
@@ -10008,13 +10012,13 @@
         <v>76</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>76</v>
@@ -10032,7 +10036,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>84</v>
@@ -10058,7 +10062,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10081,19 +10085,19 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>76</v>
@@ -10142,7 +10146,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -10168,7 +10172,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10191,19 +10195,19 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>76</v>
@@ -10252,7 +10256,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -10270,7 +10274,7 @@
         <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>76</v>
@@ -10278,7 +10282,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10301,17 +10305,17 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>76</v>
@@ -10360,7 +10364,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
@@ -10378,7 +10382,7 @@
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -10386,7 +10390,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10409,17 +10413,17 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>76</v>
@@ -10468,7 +10472,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -10494,7 +10498,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10517,13 +10521,13 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10574,7 +10578,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -10595,16 +10599,16 @@
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10626,13 +10630,13 @@
         <v>130</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10682,7 +10686,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
@@ -10703,16 +10707,16 @@
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10734,16 +10738,16 @@
         <v>130</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>76</v>
@@ -10792,7 +10796,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
@@ -10818,7 +10822,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10841,17 +10845,17 @@
         <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>76</v>
@@ -10900,7 +10904,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>84</v>
@@ -10926,7 +10930,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10949,17 +10953,17 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>76</v>
@@ -11008,7 +11012,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>84</v>
@@ -11026,7 +11030,7 @@
         <v>76</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>76</v>
@@ -11034,7 +11038,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11057,19 +11061,19 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>76</v>
@@ -11118,7 +11122,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -11144,7 +11148,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11167,19 +11171,19 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -11204,11 +11208,11 @@
         <v>76</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X76" s="2"/>
       <c r="Y76" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>76</v>
@@ -11226,7 +11230,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -11252,7 +11256,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11275,17 +11279,17 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>76</v>
@@ -11310,13 +11314,13 @@
         <v>76</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>76</v>
@@ -11334,7 +11338,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -11360,11 +11364,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11383,19 +11387,19 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>76</v>
@@ -11444,7 +11448,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -11459,7 +11463,7 @@
         <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>76</v>
@@ -11470,7 +11474,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11493,13 +11497,13 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11550,7 +11554,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -11571,16 +11575,16 @@
         <v>76</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11602,13 +11606,13 @@
         <v>130</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11658,7 +11662,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
@@ -11679,16 +11683,16 @@
         <v>76</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11710,16 +11714,16 @@
         <v>130</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>76</v>
@@ -11768,7 +11772,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
@@ -11794,7 +11798,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11817,17 +11821,17 @@
         <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>76</v>
@@ -11876,7 +11880,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>84</v>
@@ -11902,7 +11906,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11925,19 +11929,19 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>76</v>
@@ -11962,11 +11966,11 @@
         <v>76</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X83" s="2"/>
       <c r="Y83" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>76</v>
@@ -11984,7 +11988,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>84</v>
@@ -12010,7 +12014,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12033,17 +12037,17 @@
         <v>76</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>76</v>
@@ -12068,11 +12072,11 @@
         <v>76</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>76</v>
@@ -12090,7 +12094,7 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>74</v>
@@ -12116,7 +12120,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12139,13 +12143,13 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12196,7 +12200,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>74</v>
@@ -12222,7 +12226,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12245,19 +12249,19 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>76</v>
@@ -12306,7 +12310,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -12332,7 +12336,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12355,19 +12359,19 @@
         <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>76</v>
@@ -12392,13 +12396,13 @@
         <v>76</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>76</v>
@@ -12416,7 +12420,7 @@
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -12442,7 +12446,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12465,17 +12469,17 @@
         <v>76</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>76</v>
@@ -12524,7 +12528,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -12539,7 +12543,7 @@
         <v>97</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>76</v>
@@ -12550,7 +12554,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12573,13 +12577,13 @@
         <v>76</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12630,7 +12634,7 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -12651,12 +12655,12 @@
         <v>76</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12734,7 +12738,7 @@
         <v>134</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>74</v>
@@ -12760,10 +12764,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>76</v>
@@ -12785,13 +12789,13 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12842,7 +12846,7 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
@@ -12868,11 +12872,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12894,16 +12898,16 @@
         <v>130</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>76</v>
@@ -12952,7 +12956,7 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>74</v>
@@ -12978,7 +12982,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13001,19 +13005,19 @@
         <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>76</v>
@@ -13062,7 +13066,7 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>84</v>
@@ -13088,7 +13092,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13111,17 +13115,17 @@
         <v>76</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>76</v>
@@ -13146,13 +13150,13 @@
         <v>76</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>76</v>
@@ -13170,7 +13174,7 @@
         <v>76</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>84</v>
@@ -13196,7 +13200,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13219,19 +13223,19 @@
         <v>76</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>76</v>
@@ -13256,13 +13260,13 @@
         <v>76</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>76</v>
@@ -13280,7 +13284,7 @@
         <v>76</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>74</v>
@@ -13306,7 +13310,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13329,17 +13333,17 @@
         <v>76</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>76</v>
@@ -13364,13 +13368,13 @@
         <v>76</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>76</v>
@@ -13388,7 +13392,7 @@
         <v>76</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>74</v>
@@ -13414,7 +13418,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13437,19 +13441,19 @@
         <v>76</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>76</v>
@@ -13474,13 +13478,13 @@
         <v>76</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>76</v>
@@ -13498,7 +13502,7 @@
         <v>76</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>74</v>
@@ -13524,7 +13528,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13547,17 +13551,17 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>76</v>
@@ -13606,7 +13610,7 @@
         <v>76</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -13632,7 +13636,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13655,13 +13659,13 @@
         <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13712,7 +13716,7 @@
         <v>76</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
@@ -13733,12 +13737,12 @@
         <v>76</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13816,7 +13820,7 @@
         <v>134</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
@@ -13842,10 +13846,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C101" t="s" s="2">
         <v>76</v>
@@ -13867,13 +13871,13 @@
         <v>76</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13924,7 +13928,7 @@
         <v>76</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -13950,11 +13954,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13976,16 +13980,16 @@
         <v>130</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>76</v>
@@ -14034,7 +14038,7 @@
         <v>76</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
@@ -14060,7 +14064,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14083,17 +14087,17 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>76</v>
@@ -14142,7 +14146,7 @@
         <v>76</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>84</v>
@@ -14168,7 +14172,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14191,19 +14195,19 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>76</v>
@@ -14228,13 +14232,13 @@
         <v>76</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>76</v>
@@ -14252,7 +14256,7 @@
         <v>76</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
@@ -14278,7 +14282,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14301,17 +14305,17 @@
         <v>76</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>76</v>
@@ -14360,7 +14364,7 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
@@ -14386,7 +14390,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14409,17 +14413,17 @@
         <v>76</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>76</v>
@@ -14444,13 +14448,13 @@
         <v>76</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>76</v>
@@ -14468,7 +14472,7 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>84</v>
@@ -14494,7 +14498,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14517,17 +14521,17 @@
         <v>76</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>76</v>
@@ -14576,7 +14580,7 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
@@ -14602,7 +14606,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14625,19 +14629,19 @@
         <v>85</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>76</v>
@@ -14686,7 +14690,7 @@
         <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>84</v>
@@ -14707,12 +14711,12 @@
         <v>76</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14735,13 +14739,13 @@
         <v>76</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -14792,7 +14796,7 @@
         <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
@@ -14813,12 +14817,12 @@
         <v>76</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14896,7 +14900,7 @@
         <v>134</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -14922,10 +14926,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>76</v>
@@ -14947,13 +14951,13 @@
         <v>76</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15004,7 +15008,7 @@
         <v>76</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
@@ -15030,10 +15034,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>76</v>
@@ -15055,13 +15059,13 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -15112,7 +15116,7 @@
         <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>74</v>
@@ -15138,10 +15142,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>76</v>
@@ -15163,13 +15167,13 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -15220,7 +15224,7 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>74</v>
@@ -15246,11 +15250,11 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -15272,16 +15276,16 @@
         <v>130</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>76</v>
@@ -15330,7 +15334,7 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>74</v>
@@ -15356,7 +15360,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15379,17 +15383,17 @@
         <v>85</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>76</v>
@@ -15438,7 +15442,7 @@
         <v>76</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>84</v>
@@ -15464,7 +15468,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15487,19 +15491,19 @@
         <v>85</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>76</v>
@@ -15548,7 +15552,7 @@
         <v>76</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>84</v>
@@ -15574,7 +15578,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15597,19 +15601,19 @@
         <v>76</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>76</v>
@@ -15658,7 +15662,7 @@
         <v>76</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>74</v>
@@ -15673,10 +15677,10 @@
         <v>97</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>76</v>
@@ -15684,7 +15688,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15707,17 +15711,17 @@
         <v>85</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>76</v>
@@ -15766,7 +15770,7 @@
         <v>76</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>84</v>
@@ -15792,7 +15796,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15815,17 +15819,17 @@
         <v>76</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>76</v>
@@ -15874,7 +15878,7 @@
         <v>76</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>74</v>
@@ -15900,7 +15904,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15923,19 +15927,19 @@
         <v>76</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>76</v>
@@ -15984,7 +15988,7 @@
         <v>76</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
@@ -16010,7 +16014,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16033,19 +16037,19 @@
         <v>76</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>76</v>
@@ -16094,7 +16098,7 @@
         <v>76</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
@@ -16120,7 +16124,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16143,17 +16147,17 @@
         <v>76</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>76</v>
@@ -16202,7 +16206,7 @@
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
@@ -16228,7 +16232,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16251,13 +16255,13 @@
         <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16308,7 +16312,7 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
@@ -16329,16 +16333,16 @@
         <v>76</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -16360,13 +16364,13 @@
         <v>130</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16416,7 +16420,7 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -16437,16 +16441,16 @@
         <v>76</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16468,16 +16472,16 @@
         <v>130</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>76</v>
@@ -16526,7 +16530,7 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
@@ -16552,7 +16556,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16575,19 +16579,19 @@
         <v>76</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>76</v>
@@ -16636,7 +16640,7 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>84</v>
@@ -16662,7 +16666,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16685,17 +16689,17 @@
         <v>76</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>76</v>
@@ -16720,13 +16724,13 @@
         <v>76</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>76</v>
@@ -16744,7 +16748,7 @@
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>74</v>
@@ -16770,7 +16774,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16793,17 +16797,17 @@
         <v>76</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>76</v>
@@ -16852,7 +16856,7 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>74</v>
@@ -16878,7 +16882,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16901,17 +16905,17 @@
         <v>76</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>76</v>
@@ -16960,7 +16964,7 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
@@ -16986,7 +16990,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17009,13 +17013,13 @@
         <v>76</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -17066,7 +17070,7 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
@@ -17087,12 +17091,12 @@
         <v>76</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17170,7 +17174,7 @@
         <v>134</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -17196,10 +17200,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C132" t="s" s="2">
         <v>76</v>
@@ -17221,13 +17225,13 @@
         <v>76</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -17278,7 +17282,7 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
@@ -17304,10 +17308,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C133" t="s" s="2">
         <v>76</v>
@@ -17329,13 +17333,13 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -17386,7 +17390,7 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>74</v>
@@ -17412,10 +17416,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C134" t="s" s="2">
         <v>76</v>
@@ -17437,13 +17441,13 @@
         <v>76</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -17494,7 +17498,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>74</v>
@@ -17520,10 +17524,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C135" t="s" s="2">
         <v>76</v>
@@ -17545,13 +17549,13 @@
         <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -17602,7 +17606,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>74</v>
@@ -17628,11 +17632,11 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -17654,16 +17658,16 @@
         <v>130</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>76</v>
@@ -17712,7 +17716,7 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>74</v>
@@ -17738,7 +17742,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17761,17 +17765,17 @@
         <v>76</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>76</v>
@@ -17820,7 +17824,7 @@
         <v>76</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>84</v>
@@ -17846,7 +17850,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17869,17 +17873,17 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>76</v>
@@ -17928,7 +17932,7 @@
         <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>74</v>
@@ -17954,7 +17958,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17977,17 +17981,17 @@
         <v>76</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>76</v>
@@ -18036,7 +18040,7 @@
         <v>76</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>74</v>
@@ -18062,7 +18066,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18085,17 +18089,17 @@
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>76</v>
@@ -18144,7 +18148,7 @@
         <v>76</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>74</v>
@@ -18170,7 +18174,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18193,17 +18197,17 @@
         <v>76</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>76</v>
@@ -18252,7 +18256,7 @@
         <v>76</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>74</v>
@@ -18278,7 +18282,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18301,17 +18305,17 @@
         <v>76</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>76</v>
@@ -18336,13 +18340,13 @@
         <v>76</v>
       </c>
       <c r="W142" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>76</v>
@@ -18360,7 +18364,7 @@
         <v>76</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>74</v>
@@ -18386,7 +18390,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18409,19 +18413,19 @@
         <v>76</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>76</v>
@@ -18446,13 +18450,13 @@
         <v>76</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>76</v>
@@ -18470,7 +18474,7 @@
         <v>76</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>74</v>
@@ -18496,11 +18500,11 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -18519,19 +18523,19 @@
         <v>76</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>76</v>
@@ -18556,13 +18560,13 @@
         <v>76</v>
       </c>
       <c r="W144" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>76</v>
@@ -18580,7 +18584,7 @@
         <v>76</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>84</v>
@@ -18606,7 +18610,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18629,19 +18633,19 @@
         <v>76</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>76</v>
@@ -18666,13 +18670,13 @@
         <v>76</v>
       </c>
       <c r="W145" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>76</v>
@@ -18690,7 +18694,7 @@
         <v>76</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>74</v>
@@ -18716,7 +18720,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18739,19 +18743,19 @@
         <v>76</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>76</v>
@@ -18776,13 +18780,13 @@
         <v>76</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>76</v>
@@ -18800,7 +18804,7 @@
         <v>76</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>74</v>
@@ -18826,7 +18830,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18849,17 +18853,17 @@
         <v>76</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>76</v>
@@ -18908,7 +18912,7 @@
         <v>76</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>74</v>
@@ -18926,7 +18930,7 @@
         <v>76</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>76</v>
@@ -18934,7 +18938,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18957,17 +18961,17 @@
         <v>76</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>76</v>
@@ -18992,13 +18996,13 @@
         <v>76</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>76</v>
@@ -19016,7 +19020,7 @@
         <v>76</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>74</v>
@@ -19034,7 +19038,7 @@
         <v>76</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>76</v>
@@ -19042,7 +19046,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19065,17 +19069,17 @@
         <v>76</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>76</v>
@@ -19124,7 +19128,7 @@
         <v>76</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>74</v>
@@ -19150,7 +19154,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19173,13 +19177,13 @@
         <v>76</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -19230,7 +19234,7 @@
         <v>76</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>74</v>
@@ -19251,16 +19255,16 @@
         <v>76</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -19282,13 +19286,13 @@
         <v>130</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
@@ -19329,7 +19333,7 @@
         <v>133</v>
       </c>
       <c r="AB151" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC151" t="s" s="2">
         <v>76</v>
@@ -19338,7 +19342,7 @@
         <v>134</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>74</v>
@@ -19359,15 +19363,15 @@
         <v>76</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C152" t="s" s="2">
         <v>76</v>
@@ -19389,13 +19393,13 @@
         <v>76</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -19446,7 +19450,7 @@
         <v>76</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>74</v>
@@ -19472,7 +19476,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19495,19 +19499,19 @@
         <v>85</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>76</v>
@@ -19556,7 +19560,7 @@
         <v>76</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>74</v>
@@ -19577,12 +19581,12 @@
         <v>76</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19608,20 +19612,20 @@
         <v>106</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P154" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="Q154" t="s" s="2">
         <v>76</v>
@@ -19642,13 +19646,13 @@
         <v>76</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>76</v>
@@ -19666,7 +19670,7 @@
         <v>76</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>74</v>
@@ -19687,12 +19691,12 @@
         <v>76</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19715,17 +19719,17 @@
         <v>85</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>76</v>
@@ -19774,7 +19778,7 @@
         <v>76</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>74</v>
@@ -19795,12 +19799,12 @@
         <v>76</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19826,14 +19830,14 @@
         <v>100</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>76</v>
@@ -19882,7 +19886,7 @@
         <v>76</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>74</v>
@@ -19891,7 +19895,7 @@
         <v>84</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>97</v>
@@ -19903,12 +19907,12 @@
         <v>76</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19934,16 +19938,16 @@
         <v>106</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>76</v>
@@ -19992,7 +19996,7 @@
         <v>76</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>74</v>
@@ -20013,12 +20017,12 @@
         <v>76</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20041,17 +20045,17 @@
         <v>76</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>76</v>
@@ -20100,7 +20104,7 @@
         <v>76</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>74</v>
@@ -20126,7 +20130,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20149,19 +20153,19 @@
         <v>76</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>76</v>
@@ -20210,7 +20214,7 @@
         <v>76</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>74</v>
@@ -20236,7 +20240,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20259,19 +20263,19 @@
         <v>76</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>76</v>
@@ -20320,7 +20324,7 @@
         <v>76</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>74</v>
@@ -20346,7 +20350,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20369,17 +20373,17 @@
         <v>76</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>76</v>
@@ -20428,7 +20432,7 @@
         <v>76</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>74</v>
@@ -20454,7 +20458,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20477,19 +20481,19 @@
         <v>76</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>76</v>
@@ -20514,13 +20518,13 @@
         <v>76</v>
       </c>
       <c r="W162" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="Z162" t="s" s="2">
         <v>76</v>
@@ -20538,7 +20542,7 @@
         <v>76</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>74</v>
@@ -20564,7 +20568,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20587,17 +20591,17 @@
         <v>76</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>76</v>
@@ -20622,13 +20626,13 @@
         <v>76</v>
       </c>
       <c r="W163" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>76</v>
@@ -20646,7 +20650,7 @@
         <v>76</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>74</v>
@@ -20672,7 +20676,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20695,19 +20699,19 @@
         <v>76</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>76</v>
@@ -20756,7 +20760,7 @@
         <v>76</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>74</v>
@@ -20771,7 +20775,7 @@
         <v>97</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>76</v>
@@ -20782,7 +20786,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20805,17 +20809,17 @@
         <v>76</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>76</v>
@@ -20864,7 +20868,7 @@
         <v>76</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>74</v>
@@ -20890,7 +20894,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20913,13 +20917,13 @@
         <v>76</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -20970,7 +20974,7 @@
         <v>76</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>74</v>
@@ -20991,16 +20995,16 @@
         <v>76</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -21022,13 +21026,13 @@
         <v>130</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
@@ -21078,7 +21082,7 @@
         <v>76</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>74</v>
@@ -21099,16 +21103,16 @@
         <v>76</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -21130,16 +21134,16 @@
         <v>130</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>76</v>
@@ -21188,7 +21192,7 @@
         <v>76</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>74</v>
@@ -21214,7 +21218,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21237,17 +21241,17 @@
         <v>76</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>76</v>
@@ -21296,7 +21300,7 @@
         <v>76</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>84</v>
@@ -21322,7 +21326,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21345,17 +21349,17 @@
         <v>76</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>76</v>
@@ -21380,13 +21384,13 @@
         <v>76</v>
       </c>
       <c r="W170" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>76</v>
@@ -21404,7 +21408,7 @@
         <v>76</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>74</v>
@@ -21430,7 +21434,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21453,19 +21457,19 @@
         <v>76</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>76</v>
@@ -21490,13 +21494,13 @@
         <v>76</v>
       </c>
       <c r="W171" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X171" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>76</v>
@@ -21514,7 +21518,7 @@
         <v>76</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>74</v>
@@ -21540,11 +21544,11 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -21563,19 +21567,19 @@
         <v>76</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>76</v>
@@ -21600,13 +21604,13 @@
         <v>76</v>
       </c>
       <c r="W172" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X172" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z172" t="s" s="2">
         <v>76</v>
@@ -21624,7 +21628,7 @@
         <v>76</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>84</v>
@@ -21650,7 +21654,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21673,19 +21677,19 @@
         <v>76</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>76</v>
@@ -21710,13 +21714,13 @@
         <v>76</v>
       </c>
       <c r="W173" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>76</v>
@@ -21734,7 +21738,7 @@
         <v>76</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>74</v>
@@ -21760,7 +21764,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21783,19 +21787,19 @@
         <v>76</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>76</v>
@@ -21820,13 +21824,13 @@
         <v>76</v>
       </c>
       <c r="W174" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>76</v>
@@ -21844,7 +21848,7 @@
         <v>76</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>74</v>
@@ -21870,7 +21874,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21893,17 +21897,17 @@
         <v>76</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>76</v>
@@ -21952,7 +21956,7 @@
         <v>76</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>74</v>
@@ -21978,7 +21982,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22001,17 +22005,17 @@
         <v>76</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>76</v>
@@ -22060,7 +22064,7 @@
         <v>76</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>74</v>
@@ -22086,7 +22090,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22109,19 +22113,19 @@
         <v>76</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>76</v>
@@ -22170,7 +22174,7 @@
         <v>76</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>74</v>
@@ -22196,7 +22200,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22219,19 +22223,19 @@
         <v>76</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>76</v>
@@ -22280,7 +22284,7 @@
         <v>76</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>74</v>
@@ -22306,7 +22310,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22329,17 +22333,17 @@
         <v>76</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>76</v>
@@ -22388,7 +22392,7 @@
         <v>76</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>74</v>
@@ -22414,7 +22418,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22437,17 +22441,17 @@
         <v>76</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>76</v>
@@ -22496,7 +22500,7 @@
         <v>76</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>74</v>
@@ -22522,7 +22526,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22545,13 +22549,13 @@
         <v>76</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
@@ -22602,7 +22606,7 @@
         <v>76</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>74</v>
@@ -22623,16 +22627,16 @@
         <v>76</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -22654,13 +22658,13 @@
         <v>130</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
@@ -22710,7 +22714,7 @@
         <v>76</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>74</v>
@@ -22731,16 +22735,16 @@
         <v>76</v>
       </c>
       <c r="AL182" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -22762,16 +22766,16 @@
         <v>130</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>76</v>
@@ -22820,7 +22824,7 @@
         <v>76</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>74</v>
@@ -22846,7 +22850,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -22869,17 +22873,17 @@
         <v>76</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>76</v>
@@ -22928,7 +22932,7 @@
         <v>76</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>84</v>
@@ -22954,7 +22958,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -22977,17 +22981,17 @@
         <v>76</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>76</v>
@@ -23012,13 +23016,13 @@
         <v>76</v>
       </c>
       <c r="W185" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X185" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Z185" t="s" s="2">
         <v>76</v>
@@ -23036,7 +23040,7 @@
         <v>76</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>74</v>
@@ -23062,7 +23066,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -23085,19 +23089,19 @@
         <v>76</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>76</v>
@@ -23122,13 +23126,13 @@
         <v>76</v>
       </c>
       <c r="W186" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X186" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>76</v>
@@ -23146,7 +23150,7 @@
         <v>76</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>74</v>
@@ -23172,7 +23176,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -23195,19 +23199,19 @@
         <v>76</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>76</v>
@@ -23232,13 +23236,13 @@
         <v>76</v>
       </c>
       <c r="W187" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X187" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Z187" t="s" s="2">
         <v>76</v>
@@ -23256,7 +23260,7 @@
         <v>76</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>84</v>
@@ -23282,7 +23286,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23305,19 +23309,19 @@
         <v>76</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>76</v>
@@ -23342,13 +23346,13 @@
         <v>76</v>
       </c>
       <c r="W188" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="Z188" t="s" s="2">
         <v>76</v>
@@ -23366,7 +23370,7 @@
         <v>76</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>74</v>
@@ -23392,7 +23396,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23415,19 +23419,19 @@
         <v>76</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>76</v>
@@ -23452,13 +23456,13 @@
         <v>76</v>
       </c>
       <c r="W189" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X189" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="Z189" t="s" s="2">
         <v>76</v>
@@ -23476,7 +23480,7 @@
         <v>76</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>74</v>
@@ -23502,7 +23506,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23525,17 +23529,17 @@
         <v>76</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>76</v>
@@ -23584,7 +23588,7 @@
         <v>76</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>74</v>
@@ -23610,7 +23614,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -23633,17 +23637,17 @@
         <v>76</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>76</v>
@@ -23692,7 +23696,7 @@
         <v>76</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>74</v>
@@ -23718,7 +23722,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -23741,19 +23745,19 @@
         <v>76</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>76</v>
@@ -23802,7 +23806,7 @@
         <v>76</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>74</v>
@@ -23828,7 +23832,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -23851,19 +23855,19 @@
         <v>76</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>76</v>
@@ -23912,7 +23916,7 @@
         <v>76</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>74</v>
@@ -23938,7 +23942,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -23961,17 +23965,17 @@
         <v>76</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>76</v>
@@ -24020,7 +24024,7 @@
         <v>76</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>74</v>
@@ -24046,7 +24050,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -24069,17 +24073,17 @@
         <v>76</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>76</v>
@@ -24128,7 +24132,7 @@
         <v>76</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>74</v>
